--- a/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
+++ b/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\書類\リサーチ\NCH Projects\Viral Hepatitis in Elderly Population\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{630C0987-59C1-48C7-9D6F-8E340DAC2DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECA2A5-E105-4727-B28D-2D5C562677A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{678CEA13-3C4D-40F2-8D1B-3B00E3FCF4DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{678CEA13-3C4D-40F2-8D1B-3B00E3FCF4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Data" sheetId="1" r:id="rId1"/>
@@ -1300,78 +1300,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F80D0D4-CC20-4219-9230-5AFAA19F7E21}">
   <dimension ref="A1:BW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" style="42" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="42" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" style="42" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="42" customWidth="1"/>
+    <col min="11" max="11" width="17.5546875" style="42" customWidth="1"/>
     <col min="12" max="12" width="22" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" customWidth="1"/>
     <col min="15" max="16" width="19" style="2" customWidth="1"/>
     <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="20" width="12.140625" style="2" customWidth="1"/>
-    <col min="21" max="22" width="9.140625" style="2"/>
+    <col min="18" max="20" width="12.109375" style="2" customWidth="1"/>
+    <col min="21" max="22" width="9.109375" style="2"/>
     <col min="23" max="24" width="16" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.5703125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.44140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.109375" style="2" customWidth="1"/>
     <col min="28" max="28" width="11" style="2" customWidth="1"/>
     <col min="29" max="29" width="14" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="2" customWidth="1"/>
     <col min="31" max="31" width="14" style="2" customWidth="1"/>
-    <col min="32" max="33" width="9.140625" style="2"/>
+    <col min="32" max="33" width="9.109375" style="2"/>
     <col min="34" max="35" width="16" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13.42578125" style="2" customWidth="1"/>
-    <col min="37" max="37" width="12.5703125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.140625" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.44140625" style="2" customWidth="1"/>
+    <col min="37" max="37" width="12.5546875" style="2" customWidth="1"/>
+    <col min="38" max="38" width="15.109375" style="2" customWidth="1"/>
     <col min="39" max="39" width="11" style="2" customWidth="1"/>
     <col min="40" max="40" width="14" style="2" customWidth="1"/>
-    <col min="41" max="41" width="10.7109375" style="2" customWidth="1"/>
+    <col min="41" max="41" width="10.6640625" style="2" customWidth="1"/>
     <col min="42" max="42" width="14" style="2" customWidth="1"/>
-    <col min="43" max="44" width="9.140625" style="2"/>
+    <col min="43" max="44" width="9.109375" style="2"/>
     <col min="45" max="46" width="16" style="2" customWidth="1"/>
-    <col min="47" max="47" width="13.42578125" style="2" customWidth="1"/>
-    <col min="48" max="48" width="12.5703125" style="2" customWidth="1"/>
-    <col min="49" max="49" width="15.140625" style="2" customWidth="1"/>
+    <col min="47" max="47" width="13.44140625" style="2" customWidth="1"/>
+    <col min="48" max="48" width="12.5546875" style="2" customWidth="1"/>
+    <col min="49" max="49" width="15.109375" style="2" customWidth="1"/>
     <col min="50" max="50" width="11" style="2" customWidth="1"/>
     <col min="51" max="51" width="14" style="2" customWidth="1"/>
-    <col min="52" max="52" width="10.7109375" style="2" customWidth="1"/>
+    <col min="52" max="52" width="10.6640625" style="2" customWidth="1"/>
     <col min="53" max="53" width="14" style="2" customWidth="1"/>
-    <col min="54" max="55" width="9.140625" style="2"/>
+    <col min="54" max="55" width="9.109375" style="2"/>
     <col min="56" max="57" width="16" style="2" customWidth="1"/>
-    <col min="58" max="58" width="13.42578125" style="2" customWidth="1"/>
-    <col min="59" max="59" width="12.5703125" style="2" customWidth="1"/>
-    <col min="60" max="60" width="15.140625" style="2" customWidth="1"/>
+    <col min="58" max="58" width="13.44140625" style="2" customWidth="1"/>
+    <col min="59" max="59" width="12.5546875" style="2" customWidth="1"/>
+    <col min="60" max="60" width="15.109375" style="2" customWidth="1"/>
     <col min="61" max="61" width="11" style="2" customWidth="1"/>
     <col min="62" max="62" width="14" style="2" customWidth="1"/>
-    <col min="63" max="63" width="10.85546875" style="2" customWidth="1"/>
+    <col min="63" max="63" width="10.88671875" style="2" customWidth="1"/>
     <col min="64" max="64" width="14" style="2" customWidth="1"/>
-    <col min="65" max="66" width="9.140625" style="2"/>
+    <col min="65" max="66" width="9.109375" style="2"/>
     <col min="67" max="68" width="16" style="2" customWidth="1"/>
-    <col min="69" max="69" width="13.42578125" style="2" customWidth="1"/>
-    <col min="70" max="70" width="12.5703125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="15.140625" style="2" customWidth="1"/>
+    <col min="69" max="69" width="13.44140625" style="2" customWidth="1"/>
+    <col min="70" max="70" width="12.5546875" style="2" customWidth="1"/>
+    <col min="71" max="71" width="15.109375" style="2" customWidth="1"/>
     <col min="72" max="72" width="11" style="2" customWidth="1"/>
     <col min="73" max="73" width="14" style="2" customWidth="1"/>
-    <col min="74" max="74" width="10.7109375" style="2" customWidth="1"/>
+    <col min="74" max="74" width="10.6640625" style="2" customWidth="1"/>
     <col min="75" max="75" width="14" style="2" customWidth="1"/>
-    <col min="76" max="16384" width="9.140625" style="2"/>
+    <col min="76" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>168</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>45554</v>
       </c>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>45685</v>
       </c>
     </row>
-    <row r="4" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2108,7 +2108,7 @@
       <c r="BV4" s="2"/>
       <c r="BW4" s="2"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>45222</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>45257</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2743,7 +2743,7 @@
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
     </row>
-    <row r="8" spans="1:75" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:75" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2906,7 +2906,7 @@
       <c r="BV8" s="17"/>
       <c r="BW8" s="17"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="BV9" s="29"/>
       <c r="BW9" s="29"/>
     </row>
-    <row r="10" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3238,7 +3238,7 @@
       <c r="BV10" s="25"/>
       <c r="BW10" s="25"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3391,7 +3391,7 @@
       <c r="BV11" s="23"/>
       <c r="BW11" s="23"/>
     </row>
-    <row r="12" spans="1:75" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:75" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3563,9 +3563,7 @@
       <c r="BE12" s="3">
         <v>45287</v>
       </c>
-      <c r="BF12" s="2">
-        <v>133</v>
-      </c>
+      <c r="BF12" s="2"/>
       <c r="BG12" s="2">
         <v>5.2</v>
       </c>
@@ -3618,7 +3616,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3833,7 +3831,7 @@
         <v>45637</v>
       </c>
     </row>
-    <row r="14" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3974,7 +3972,7 @@
       <c r="BV14" s="14"/>
       <c r="BW14" s="14"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -4195,7 +4193,7 @@
         <v>45414</v>
       </c>
     </row>
-    <row r="16" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4402,7 +4400,7 @@
       <c r="BV16" s="23"/>
       <c r="BW16" s="24"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4558,7 +4556,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="18" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -4681,7 +4679,7 @@
       <c r="BV18" s="17"/>
       <c r="BW18" s="17"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4858,7 +4856,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="20" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5033,7 +5031,7 @@
       <c r="BV20" s="2"/>
       <c r="BW20" s="2"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5182,7 +5180,7 @@
         <v>45480</v>
       </c>
     </row>
-    <row r="22" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5397,7 +5395,7 @@
         <v>45356</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5474,7 +5472,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="24" spans="1:75" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5671,7 +5669,7 @@
       <c r="BV24" s="20"/>
       <c r="BW24" s="20"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5802,7 +5800,7 @@
       <c r="BV25" s="4"/>
       <c r="BW25" s="4"/>
     </row>
-    <row r="26" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5964,19 +5962,19 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" customWidth="1"/>
+    <col min="7" max="7" width="37.33203125" customWidth="1"/>
     <col min="8" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>117</v>
       </c>
@@ -5984,7 +5982,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="31" t="s">
         <v>79</v>
       </c>
@@ -6011,7 +6009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="34" t="s">
         <v>98</v>
       </c>
@@ -6033,7 +6031,7 @@
       </c>
       <c r="J3" s="38"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>81</v>
       </c>
@@ -6053,7 +6051,7 @@
       <c r="I4" s="37"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -6075,7 +6073,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>101</v>
       </c>
@@ -6099,7 +6097,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>102</v>
       </c>
@@ -6117,7 +6115,7 @@
       <c r="I7" s="37"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>83</v>
       </c>
@@ -6139,7 +6137,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>95</v>
       </c>
@@ -6163,7 +6161,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>96</v>
       </c>
@@ -6187,7 +6185,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>84</v>
       </c>
@@ -6211,7 +6209,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>85</v>
       </c>
@@ -6229,7 +6227,7 @@
       <c r="I12" s="37"/>
       <c r="J12" s="36"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>86</v>
       </c>
@@ -6253,7 +6251,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="39"/>
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
@@ -6271,7 +6269,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="36"/>
@@ -6288,7 +6286,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="36"/>
@@ -6305,7 +6303,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="36"/>
@@ -6322,7 +6320,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="36"/>
@@ -6339,7 +6337,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="36"/>
@@ -6356,7 +6354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="36"/>
@@ -6373,7 +6371,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="36"/>
@@ -6384,7 +6382,7 @@
       <c r="I21" s="37"/>
       <c r="J21" s="36"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="36"/>
@@ -6401,7 +6399,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="50"/>
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
@@ -6419,119 +6417,119 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="50"/>
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="36"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="50"/>
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="36"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="36"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="50"/>
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="36"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="50"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="36"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="36"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="36"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="36"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="36"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="36"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="36"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="36"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="36"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="39"/>
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="36"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="39"/>
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="36"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="34"/>
       <c r="C40" s="40"/>
       <c r="D40" s="40"/>
       <c r="E40" s="38"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="36"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="38"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="38"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="36"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="36"/>

--- a/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
+++ b/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69ECA2A5-E105-4727-B28D-2D5C562677A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F7B8E-5255-445B-A2F8-BCCA0CB7E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{678CEA13-3C4D-40F2-8D1B-3B00E3FCF4DF}"/>
   </bookViews>
@@ -1300,7 +1300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F80D0D4-CC20-4219-9230-5AFAA19F7E21}">
   <dimension ref="A1:BW26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
       <selection activeCell="BF12" sqref="BF12"/>
     </sheetView>
   </sheetViews>
@@ -3563,9 +3563,11 @@
       <c r="BE12" s="3">
         <v>45287</v>
       </c>
-      <c r="BF12" s="2"/>
+      <c r="BF12" s="2">
+        <v>5.2</v>
+      </c>
       <c r="BG12" s="2">
-        <v>5.2</v>
+        <v>133</v>
       </c>
       <c r="BH12" s="3">
         <v>45287</v>
@@ -5958,8 +5960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5425E-274C-4C63-99D0-8378A0ACB863}">
   <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
+++ b/paul-hepatitis-paper/datasets/Hepatitis B Cases - NCH Deidentified.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\書類\リサーチ\NCH Projects\Viral Hepatitis in Elderly Population\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07F7B8E-5255-445B-A2F8-BCCA0CB7E8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4B99B-7D7A-4162-B256-68913F97501E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{678CEA13-3C4D-40F2-8D1B-3B00E3FCF4DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{678CEA13-3C4D-40F2-8D1B-3B00E3FCF4DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Data" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Main Data'!$A$1:$CE$32</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="177">
   <si>
     <t>Female</t>
   </si>
@@ -390,9 +393,6 @@
     <t xml:space="preserve">     Variceal Bleeding, N (%)</t>
   </si>
   <si>
-    <t>Table 1: Demographic characteristics of hepatitis B patients stratifed by age groups</t>
-  </si>
-  <si>
     <t>Laboratory Data</t>
   </si>
   <si>
@@ -420,15 +420,6 @@
     <t xml:space="preserve">     HbSAg Titer, IU/mL, Median (IQR)</t>
   </si>
   <si>
-    <t>Table 2: Clinical and laboratory characteristics of hepatitis B patients stratifed by age groups</t>
-  </si>
-  <si>
-    <t>FIB-4 Score</t>
-  </si>
-  <si>
-    <t>APRI Score</t>
-  </si>
-  <si>
     <t>Non-Invasive Fibrosis Scores</t>
   </si>
   <si>
@@ -543,7 +534,43 @@
     <t>2 (14.3)</t>
   </si>
   <si>
+    <t>Table 2: Clinical and laboratory characteristics of hepatitis B patients stratifed by age groups, chi-squared / Fisher exact test analysis</t>
+  </si>
+  <si>
+    <t>Table 1: Demographic characteristics of hepatitis B patients stratifed by age groups, chi-squared / Fisher exact test analysis</t>
+  </si>
+  <si>
     <t>Subject Number</t>
+  </si>
+  <si>
+    <t>FIB-4 Score 1</t>
+  </si>
+  <si>
+    <t>APRI Score 1</t>
+  </si>
+  <si>
+    <t>FIB-4 Score 2</t>
+  </si>
+  <si>
+    <t>APRI Score 2</t>
+  </si>
+  <si>
+    <t>FIB-4 Score 3</t>
+  </si>
+  <si>
+    <t>APRI Score 3</t>
+  </si>
+  <si>
+    <t>FIB-4 Score 4</t>
+  </si>
+  <si>
+    <t>APRI Score 4</t>
+  </si>
+  <si>
+    <t>FIB-4 Score 5</t>
+  </si>
+  <si>
+    <t>APRI Score 5</t>
   </si>
 </sst>
 </file>
@@ -588,12 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF666666"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -608,6 +629,11 @@
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -692,7 +718,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -709,7 +735,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -776,10 +801,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,7 +847,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -837,7 +862,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -856,6 +881,42 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1298,82 +1359,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F80D0D4-CC20-4219-9230-5AFAA19F7E21}">
-  <dimension ref="A1:BW26"/>
+  <dimension ref="A1:CE27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BF12" sqref="BF12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="2"/>
-    <col min="6" max="6" width="13.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="42" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" style="2" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" style="42" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="41" customWidth="1"/>
     <col min="10" max="10" width="22" style="2" customWidth="1"/>
-    <col min="11" max="11" width="17.5546875" style="42" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" style="41" customWidth="1"/>
     <col min="12" max="12" width="22" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.44140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="12" style="2" customWidth="1"/>
     <col min="15" max="16" width="19" style="2" customWidth="1"/>
     <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="20" width="12.109375" style="2" customWidth="1"/>
-    <col min="21" max="22" width="9.109375" style="2"/>
+    <col min="18" max="20" width="12.140625" style="2" customWidth="1"/>
+    <col min="21" max="22" width="9.140625" style="2"/>
     <col min="23" max="24" width="16" style="2" customWidth="1"/>
-    <col min="25" max="25" width="13.44140625" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="15.109375" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.5703125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="2" customWidth="1"/>
     <col min="28" max="28" width="11" style="2" customWidth="1"/>
     <col min="29" max="29" width="14" style="2" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="2" customWidth="1"/>
     <col min="31" max="31" width="14" style="2" customWidth="1"/>
-    <col min="32" max="33" width="9.109375" style="2"/>
-    <col min="34" max="35" width="16" style="2" customWidth="1"/>
-    <col min="36" max="36" width="13.44140625" style="2" customWidth="1"/>
-    <col min="37" max="37" width="12.5546875" style="2" customWidth="1"/>
-    <col min="38" max="38" width="15.109375" style="2" customWidth="1"/>
-    <col min="39" max="39" width="11" style="2" customWidth="1"/>
-    <col min="40" max="40" width="14" style="2" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" style="2" customWidth="1"/>
+    <col min="32" max="33" width="14" style="60" customWidth="1"/>
+    <col min="34" max="35" width="9.140625" style="2"/>
+    <col min="36" max="37" width="16" style="2" customWidth="1"/>
+    <col min="38" max="38" width="13.42578125" style="2" customWidth="1"/>
+    <col min="39" max="39" width="12.5703125" style="60" customWidth="1"/>
+    <col min="40" max="40" width="15.140625" style="2" customWidth="1"/>
+    <col min="41" max="41" width="11" style="2" customWidth="1"/>
     <col min="42" max="42" width="14" style="2" customWidth="1"/>
-    <col min="43" max="44" width="9.109375" style="2"/>
-    <col min="45" max="46" width="16" style="2" customWidth="1"/>
-    <col min="47" max="47" width="13.44140625" style="2" customWidth="1"/>
-    <col min="48" max="48" width="12.5546875" style="2" customWidth="1"/>
-    <col min="49" max="49" width="15.109375" style="2" customWidth="1"/>
-    <col min="50" max="50" width="11" style="2" customWidth="1"/>
-    <col min="51" max="51" width="14" style="2" customWidth="1"/>
-    <col min="52" max="52" width="10.6640625" style="2" customWidth="1"/>
-    <col min="53" max="53" width="14" style="2" customWidth="1"/>
-    <col min="54" max="55" width="9.109375" style="2"/>
-    <col min="56" max="57" width="16" style="2" customWidth="1"/>
-    <col min="58" max="58" width="13.44140625" style="2" customWidth="1"/>
-    <col min="59" max="59" width="12.5546875" style="2" customWidth="1"/>
-    <col min="60" max="60" width="15.109375" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11" style="2" customWidth="1"/>
-    <col min="62" max="62" width="14" style="2" customWidth="1"/>
-    <col min="63" max="63" width="10.88671875" style="2" customWidth="1"/>
-    <col min="64" max="64" width="14" style="2" customWidth="1"/>
-    <col min="65" max="66" width="9.109375" style="2"/>
-    <col min="67" max="68" width="16" style="2" customWidth="1"/>
-    <col min="69" max="69" width="13.44140625" style="2" customWidth="1"/>
-    <col min="70" max="70" width="12.5546875" style="2" customWidth="1"/>
-    <col min="71" max="71" width="15.109375" style="2" customWidth="1"/>
-    <col min="72" max="72" width="11" style="2" customWidth="1"/>
-    <col min="73" max="73" width="14" style="2" customWidth="1"/>
-    <col min="74" max="74" width="10.6640625" style="2" customWidth="1"/>
-    <col min="75" max="75" width="14" style="2" customWidth="1"/>
-    <col min="76" max="16384" width="9.109375" style="2"/>
+    <col min="43" max="43" width="10.7109375" style="2" customWidth="1"/>
+    <col min="44" max="46" width="14" style="2" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" style="2"/>
+    <col min="49" max="50" width="16" style="2" customWidth="1"/>
+    <col min="51" max="51" width="13.42578125" style="2" customWidth="1"/>
+    <col min="52" max="52" width="12.5703125" style="2" customWidth="1"/>
+    <col min="53" max="53" width="15.140625" style="2" customWidth="1"/>
+    <col min="54" max="54" width="11" style="2" customWidth="1"/>
+    <col min="55" max="55" width="14" style="2" customWidth="1"/>
+    <col min="56" max="56" width="10.7109375" style="2" customWidth="1"/>
+    <col min="57" max="57" width="14" style="2" customWidth="1"/>
+    <col min="58" max="59" width="14" style="60" customWidth="1"/>
+    <col min="60" max="61" width="9.140625" style="2"/>
+    <col min="62" max="63" width="16" style="2" customWidth="1"/>
+    <col min="64" max="64" width="13.42578125" style="2" customWidth="1"/>
+    <col min="65" max="65" width="12.5703125" style="2" customWidth="1"/>
+    <col min="66" max="66" width="15.140625" style="2" customWidth="1"/>
+    <col min="67" max="67" width="11" style="2" customWidth="1"/>
+    <col min="68" max="68" width="14" style="2" customWidth="1"/>
+    <col min="69" max="69" width="10.85546875" style="2" customWidth="1"/>
+    <col min="70" max="70" width="14" style="2" customWidth="1"/>
+    <col min="71" max="72" width="14" style="60" customWidth="1"/>
+    <col min="73" max="74" width="9.140625" style="2"/>
+    <col min="75" max="76" width="16" style="2" customWidth="1"/>
+    <col min="77" max="77" width="13.42578125" style="2" customWidth="1"/>
+    <col min="78" max="78" width="12.5703125" style="2" customWidth="1"/>
+    <col min="79" max="79" width="15.140625" style="2" customWidth="1"/>
+    <col min="80" max="80" width="11" style="2" customWidth="1"/>
+    <col min="81" max="81" width="14" style="2" customWidth="1"/>
+    <col min="82" max="82" width="10.7109375" style="2" customWidth="1"/>
+    <col min="83" max="83" width="14" style="2" customWidth="1"/>
+    <col min="84" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:83" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>31</v>
@@ -1390,19 +1454,19 @@
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="40" t="s">
         <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="40" t="s">
         <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="40" t="s">
         <v>59</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1427,10 +1491,10 @@
         <v>72</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>168</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>5</v>
@@ -1466,139 +1530,163 @@
         <v>61</v>
       </c>
       <c r="AF1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="BU1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1617,13 +1705,13 @@
       <c r="F2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="41">
         <v>0.1</v>
       </c>
       <c r="H2" s="3">
         <v>45267</v>
       </c>
-      <c r="I2" s="42">
+      <c r="I2" s="41">
         <v>1.29</v>
       </c>
       <c r="J2" s="3">
@@ -1647,10 +1735,12 @@
       <c r="R2" s="2">
         <v>0</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="56">
+        <f>(B2*U2)/(AB2*SQRT(V2))</f>
         <v>1.1024526228887506</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="56">
+        <f>((U2/37)/AB2)*100</f>
         <v>0.13272200772200773</v>
       </c>
       <c r="U2" s="2">
@@ -1686,74 +1776,94 @@
       <c r="AE2" s="3">
         <v>45086</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="56">
+        <f>(B2*AH2)/(AO2*SQRT(AI2))</f>
+        <v>1.1807228915662651</v>
+      </c>
+      <c r="AG2" s="56">
+        <f>((AH2/37)/AO2)*100</f>
+        <v>0.15195918810376643</v>
+      </c>
+      <c r="AH2" s="2">
         <v>14</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AI2" s="2">
         <v>16</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AJ2" s="2">
         <v>0.4</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AK2" s="3">
         <v>45217</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AL2" s="2">
         <v>3.8</v>
       </c>
-      <c r="AK2" s="2">
+      <c r="AM2" s="60">
         <v>137</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>45217</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>249</v>
       </c>
       <c r="AN2" s="3">
         <v>45217</v>
       </c>
       <c r="AO2" s="2">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="AP2" s="3">
         <v>45217</v>
       </c>
       <c r="AQ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="3">
+        <v>45217</v>
+      </c>
+      <c r="AS2" s="56">
+        <f>(B2*AU2)/(BB2*SQRT(AV2))</f>
+        <v>0.83947782065021603</v>
+      </c>
+      <c r="AT2" s="56">
+        <f>((AU2/37)/BB2)*100</f>
+        <v>0.1266891891891892</v>
+      </c>
+      <c r="AU2" s="2">
         <v>12</v>
       </c>
-      <c r="AR2" s="2">
+      <c r="AV2" s="2">
         <v>22</v>
       </c>
-      <c r="AS2" s="2">
+      <c r="AW2" s="2">
         <v>0.4</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AX2" s="3">
         <v>45554</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AY2" s="2">
         <v>3.2</v>
       </c>
-      <c r="AV2" s="2">
+      <c r="AZ2" s="2">
         <v>137</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>45554</v>
-      </c>
-      <c r="AX2" s="2">
-        <v>256</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>45554</v>
-      </c>
-      <c r="AZ2" s="2">
-        <v>1</v>
       </c>
       <c r="BA2" s="3">
         <v>45554</v>
       </c>
+      <c r="BB2" s="2">
+        <v>256</v>
+      </c>
+      <c r="BC2" s="3">
+        <v>45554</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE2" s="3">
+        <v>45554</v>
+      </c>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BS2" s="56"/>
+      <c r="BT2" s="56"/>
     </row>
-    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1772,19 +1882,19 @@
       <c r="F3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="41">
         <v>0.1</v>
       </c>
       <c r="H3" s="3">
         <v>45411</v>
       </c>
-      <c r="I3" s="42">
+      <c r="I3" s="41">
         <v>2.11</v>
       </c>
       <c r="J3" s="3">
         <v>45436</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="41">
         <v>0.1</v>
       </c>
       <c r="L3" s="3">
@@ -1808,10 +1918,12 @@
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="2">
+      <c r="S3" s="56">
+        <f>(B3*U3)/(AB3*SQRT(V3))</f>
         <v>1.2432581392271109</v>
       </c>
-      <c r="T3" s="2">
+      <c r="T3" s="56">
+        <f>((U3/37)/AB3)*100</f>
         <v>0.36286286286286284</v>
       </c>
       <c r="U3" s="2">
@@ -1842,102 +1954,128 @@
         <v>45404</v>
       </c>
       <c r="AE3" s="3"/>
-      <c r="AF3" s="2">
+      <c r="AF3" s="56">
+        <f t="shared" ref="AF3:AF26" si="0">(B3*AH3)/(AO3*SQRT(AI3))</f>
+        <v>1.3727084852007359</v>
+      </c>
+      <c r="AG3" s="56">
+        <f t="shared" ref="AG3:AG26" si="1">((AH3/37)/AO3)*100</f>
+        <v>0.34696859021183341</v>
+      </c>
+      <c r="AH3" s="2">
         <v>19</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AI3" s="2">
         <v>21</v>
       </c>
-      <c r="AH3" s="2">
+      <c r="AJ3" s="2">
         <v>0.4</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AK3" s="3">
         <v>45474</v>
       </c>
-      <c r="AJ3" s="2">
+      <c r="AL3" s="2">
         <v>11</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AM3" s="60">
         <v>138</v>
-      </c>
-      <c r="AL3" s="3">
-        <v>45474</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>148</v>
       </c>
       <c r="AN3" s="3">
         <v>45474</v>
       </c>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="2">
+      <c r="AO3" s="2">
+        <v>148</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>45474</v>
+      </c>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="56">
+        <f t="shared" ref="AS3:AS24" si="2">(B3*AU3)/(BB3*SQRT(AV3))</f>
+        <v>0.71691325848201815</v>
+      </c>
+      <c r="AT3" s="56">
+        <f t="shared" ref="AT3:AT24" si="3">((AU3/37)/BB3)*100</f>
+        <v>0.10462074978204011</v>
+      </c>
+      <c r="AU3" s="2">
         <v>6</v>
       </c>
-      <c r="AR3" s="2">
+      <c r="AV3" s="2">
         <v>7</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AW3" s="2">
         <v>0.5</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AX3" s="3">
         <v>45563</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AY3" s="2">
         <v>10.5</v>
       </c>
-      <c r="AV3" s="2">
+      <c r="AZ3" s="2">
         <v>138</v>
-      </c>
-      <c r="AW3" s="3">
-        <v>45563</v>
-      </c>
-      <c r="AX3" s="2">
-        <v>155</v>
-      </c>
-      <c r="AY3" s="3">
-        <v>45563</v>
-      </c>
-      <c r="AZ3" s="2">
-        <v>1.1000000000000001</v>
       </c>
       <c r="BA3" s="3">
         <v>45563</v>
       </c>
       <c r="BB3" s="2">
+        <v>155</v>
+      </c>
+      <c r="BC3" s="3">
+        <v>45563</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>45563</v>
+      </c>
+      <c r="BF3" s="56">
+        <f t="shared" ref="BF3:BF24" si="4">(B3*BH3)/(BO3*SQRT(BI3))</f>
+        <v>1.4961638320203428</v>
+      </c>
+      <c r="BG3" s="56">
+        <f t="shared" ref="BG3:BG24" si="5">((BH3/37)/BO3)*100</f>
+        <v>0.29754525167369206</v>
+      </c>
+      <c r="BH3" s="2">
         <v>12</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BI3" s="2">
         <v>13</v>
       </c>
-      <c r="BD3" s="2">
+      <c r="BJ3" s="2">
         <v>0.7</v>
       </c>
-      <c r="BE3" s="3">
+      <c r="BK3" s="3">
         <v>45684</v>
       </c>
-      <c r="BF3" s="2">
+      <c r="BL3" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BM3" s="2">
         <v>136</v>
       </c>
-      <c r="BH3" s="3">
+      <c r="BN3" s="3">
         <v>45684</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BO3" s="2">
         <v>109</v>
       </c>
-      <c r="BJ3" s="3">
+      <c r="BP3" s="3">
         <v>45684</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BQ3" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BL3" s="3">
+      <c r="BR3" s="3">
         <v>45685</v>
       </c>
+      <c r="BS3" s="56"/>
+      <c r="BT3" s="56"/>
     </row>
-    <row r="4" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:83" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1956,19 +2094,19 @@
       <c r="F4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="41">
         <v>0.1</v>
       </c>
       <c r="H4" s="3">
         <v>45072</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="41" t="s">
         <v>77</v>
       </c>
       <c r="J4" s="3">
         <v>45184</v>
       </c>
-      <c r="K4" s="42"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2">
         <v>0</v>
@@ -1988,10 +2126,12 @@
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="56">
+        <f>(B4*U4)/(AB4*SQRT(V4))</f>
         <v>0.95673888443019051</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="56">
+        <f>((U4/37)/AB4)*100</f>
         <v>0.25211778943122226</v>
       </c>
       <c r="U4" s="2">
@@ -2023,74 +2163,86 @@
       </c>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
-      <c r="AF4" s="2">
+      <c r="AF4" s="56">
+        <f t="shared" si="0"/>
+        <v>1.133517792286338</v>
+      </c>
+      <c r="AG4" s="56">
+        <f t="shared" si="1"/>
+        <v>0.23501762632197415</v>
+      </c>
+      <c r="AH4" s="2">
         <v>18</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AI4" s="2">
         <v>13</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AJ4" s="2">
         <v>0.2</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AK4" s="3">
         <v>45073</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AL4" s="2">
         <v>4.2</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AM4" s="60">
         <v>143</v>
-      </c>
-      <c r="AL4" s="3">
-        <v>45073</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>207</v>
       </c>
       <c r="AN4" s="3">
         <v>45073</v>
       </c>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="2">
+      <c r="AO4" s="2">
+        <v>207</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>45073</v>
+      </c>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="56">
+        <f t="shared" si="2"/>
+        <v>2.0757320316028935</v>
+      </c>
+      <c r="AT4" s="56">
+        <f t="shared" si="3"/>
+        <v>1.1448948948948949</v>
+      </c>
+      <c r="AU4" s="2">
         <v>61</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AV4" s="2">
         <v>92</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AW4" s="2">
         <v>0.7</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AX4" s="3">
         <v>45189</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AY4" s="2">
         <v>2.4</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AZ4" s="2">
         <v>136</v>
-      </c>
-      <c r="AW4" s="3">
-        <v>45189</v>
-      </c>
-      <c r="AX4" s="2">
-        <v>144</v>
-      </c>
-      <c r="AY4" s="3">
-        <v>45189</v>
-      </c>
-      <c r="AZ4" s="2">
-        <v>1</v>
       </c>
       <c r="BA4" s="3">
         <v>45189</v>
       </c>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
+      <c r="BB4" s="2">
+        <v>144</v>
+      </c>
+      <c r="BC4" s="3">
+        <v>45189</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>45189</v>
+      </c>
+      <c r="BF4" s="56"/>
+      <c r="BG4" s="56"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
       <c r="BJ4" s="2"/>
@@ -2102,240 +2254,282 @@
       <c r="BP4" s="2"/>
       <c r="BQ4" s="2"/>
       <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="56"/>
       <c r="BU4" s="2"/>
       <c r="BV4" s="2"/>
       <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
     </row>
-    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>72</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>19183</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>45231</v>
       </c>
-      <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="42">
         <v>0.19</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>45109</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="50">
         <v>0.1</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>45196</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="42">
         <v>1.27</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>45227</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>1</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>1</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="6">
         <v>1</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="6">
         <v>1</v>
       </c>
-      <c r="Q5" s="7">
-        <v>0</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <v>0</v>
+      </c>
+      <c r="S5" s="56">
+        <f>(B5*U5)/(AB5*SQRT(V5))</f>
         <v>8.5330284414964517</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="56">
+        <f>((U5/37)/AB5)*100</f>
         <v>1.6949152542372881</v>
       </c>
-      <c r="U5" s="7">
+      <c r="U5" s="6">
         <v>37</v>
       </c>
-      <c r="V5" s="7">
+      <c r="V5" s="6">
         <v>28</v>
       </c>
-      <c r="W5" s="7">
+      <c r="W5" s="6">
         <v>0.6</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="7">
         <v>45109</v>
       </c>
-      <c r="Y5" s="7">
+      <c r="Y5" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="Z5" s="7">
+      <c r="Z5" s="6">
         <v>136</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="7">
         <v>45109</v>
       </c>
-      <c r="AB5" s="7">
+      <c r="AB5" s="6">
         <v>59</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="7">
         <v>45116</v>
       </c>
-      <c r="AD5" s="7">
+      <c r="AD5" s="6">
         <v>1.3</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="7">
         <v>45109</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AF5" s="56">
+        <f t="shared" si="0"/>
+        <v>4.9223074793801258</v>
+      </c>
+      <c r="AG5" s="56">
+        <f t="shared" si="1"/>
+        <v>0.88613203367301741</v>
+      </c>
+      <c r="AH5" s="6">
         <v>40</v>
       </c>
-      <c r="AG5" s="7">
+      <c r="AI5" s="6">
         <v>23</v>
       </c>
-      <c r="AH5" s="7">
+      <c r="AJ5" s="6">
         <v>0.9</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AK5" s="7">
         <v>45158</v>
       </c>
-      <c r="AJ5" s="7">
+      <c r="AL5" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="AK5" s="7">
+      <c r="AM5" s="59">
         <v>131</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AN5" s="7">
         <v>45158</v>
       </c>
-      <c r="AM5" s="7">
+      <c r="AO5" s="6">
         <v>122</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AP5" s="7">
         <v>45158</v>
       </c>
-      <c r="AO5" s="7">
+      <c r="AQ5" s="6">
         <v>1.3</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AR5" s="7">
         <v>45158</v>
       </c>
-      <c r="AQ5" s="7">
+      <c r="AS5" s="56">
+        <f t="shared" si="2"/>
+        <v>9.6399170120909243</v>
+      </c>
+      <c r="AT5" s="56">
+        <f t="shared" si="3"/>
+        <v>1.9819819819819822</v>
+      </c>
+      <c r="AU5" s="6">
         <v>44</v>
       </c>
-      <c r="AR5" s="7">
+      <c r="AV5" s="6">
         <v>30</v>
       </c>
-      <c r="AS5" s="7">
+      <c r="AW5" s="6">
         <v>1</v>
       </c>
-      <c r="AT5" s="8">
+      <c r="AX5" s="7">
         <v>45170</v>
       </c>
-      <c r="AU5" s="7">
+      <c r="AY5" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AV5" s="7">
+      <c r="AZ5" s="6">
         <v>139</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="BA5" s="7">
         <v>45170</v>
       </c>
-      <c r="AX5" s="7">
+      <c r="BB5" s="6">
         <v>60</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="BC5" s="7">
         <v>45170</v>
       </c>
-      <c r="AZ5" s="7">
+      <c r="BD5" s="6">
         <v>1.3</v>
       </c>
-      <c r="BA5" s="8">
+      <c r="BE5" s="7">
         <v>45170</v>
       </c>
-      <c r="BB5" s="7">
+      <c r="BF5" s="56">
+        <f t="shared" si="4"/>
+        <v>5.8859737522943218</v>
+      </c>
+      <c r="BG5" s="56">
+        <f t="shared" si="5"/>
+        <v>1.2101653892698669</v>
+      </c>
+      <c r="BH5" s="6">
         <v>30</v>
       </c>
-      <c r="BC5" s="7">
+      <c r="BI5" s="6">
         <v>30</v>
       </c>
-      <c r="BD5" s="7">
+      <c r="BJ5" s="6">
         <v>1.3</v>
       </c>
-      <c r="BE5" s="8">
+      <c r="BK5" s="7">
         <v>45196</v>
       </c>
-      <c r="BF5" s="7">
+      <c r="BL5" s="6">
         <v>4.8</v>
       </c>
-      <c r="BG5" s="7">
+      <c r="BM5" s="6">
         <v>133</v>
       </c>
-      <c r="BH5" s="8">
+      <c r="BN5" s="7">
         <v>45196</v>
       </c>
-      <c r="BI5" s="7">
+      <c r="BO5" s="6">
         <v>67</v>
       </c>
-      <c r="BJ5" s="8">
+      <c r="BP5" s="7">
         <v>45196</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BQ5" s="6">
         <v>1.3</v>
       </c>
-      <c r="BL5" s="8">
+      <c r="BR5" s="7">
         <v>45195</v>
       </c>
-      <c r="BM5" s="7">
+      <c r="BS5" s="56">
+        <f t="shared" ref="BS5:BS16" si="6">(B5*BU5)/(CB5*SQRT(BV5))</f>
+        <v>8.3657703689676044</v>
+      </c>
+      <c r="BT5" s="56">
+        <f t="shared" ref="BT5:BT22" si="7">((BU5/37)/CB5)*100</f>
+        <v>1.3323182337266843</v>
+      </c>
+      <c r="BU5" s="6">
         <v>35</v>
       </c>
-      <c r="BN5" s="7">
+      <c r="BV5" s="6">
         <v>18</v>
       </c>
-      <c r="BO5" s="7">
+      <c r="BW5" s="6">
         <v>1.3</v>
       </c>
-      <c r="BP5" s="8">
+      <c r="BX5" s="7">
         <v>45224</v>
       </c>
-      <c r="BQ5" s="7">
+      <c r="BY5" s="6">
         <v>3.2</v>
       </c>
-      <c r="BR5" s="7">
+      <c r="BZ5" s="6">
         <v>137</v>
       </c>
-      <c r="BS5" s="8">
+      <c r="CA5" s="7">
         <v>45224</v>
       </c>
-      <c r="BT5" s="7">
+      <c r="CB5" s="6">
         <v>71</v>
       </c>
-      <c r="BU5" s="8">
+      <c r="CC5" s="7">
         <v>45224</v>
       </c>
-      <c r="BV5" s="7">
+      <c r="CD5" s="6">
         <v>1.2</v>
       </c>
-      <c r="BW5" s="8">
+      <c r="CE5" s="7">
         <v>45222</v>
       </c>
     </row>
-    <row r="6" spans="1:75" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:83" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2354,19 +2548,19 @@
       <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="41">
         <v>0.3</v>
       </c>
       <c r="H6" s="3">
         <v>44839</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="41" t="s">
         <v>74</v>
       </c>
       <c r="J6" s="3">
         <v>45242</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <v>0.1</v>
       </c>
       <c r="L6" s="3">
@@ -2390,10 +2584,12 @@
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="56">
+        <f>(B6*U6)/(AB6*SQRT(V6))</f>
         <v>1.0675925912032189</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="56">
+        <f>((U6/37)/AB6)*100</f>
         <v>0.1589825119236884</v>
       </c>
       <c r="U6" s="2">
@@ -2429,969 +2625,1099 @@
       <c r="AE6" s="3">
         <v>44830</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="56">
+        <f t="shared" si="0"/>
+        <v>0.93145161290322576</v>
+      </c>
+      <c r="AG6" s="56">
+        <f t="shared" si="1"/>
+        <v>0.13077593722755013</v>
+      </c>
+      <c r="AH6" s="2">
         <v>15</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AI6" s="2">
         <v>16</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AJ6" s="2">
         <v>0.3</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AK6" s="3">
         <v>44838</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AL6" s="2">
         <v>7.8</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AM6" s="60">
         <v>135</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AN6" s="3">
         <v>44838</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AO6" s="2">
         <v>310</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AP6" s="3">
         <v>44840</v>
       </c>
-      <c r="AO6" s="2">
+      <c r="AQ6" s="2">
         <v>1</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AR6" s="3">
         <v>44838</v>
       </c>
-      <c r="AQ6" s="2">
+      <c r="AS6" s="56">
+        <f t="shared" si="2"/>
+        <v>1.4076088674552787</v>
+      </c>
+      <c r="AT6" s="56">
+        <f t="shared" si="3"/>
+        <v>0.39215686274509803</v>
+      </c>
+      <c r="AU6" s="2">
         <v>37</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AV6" s="2">
         <v>63</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AW6" s="2">
         <v>0.7</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AX6" s="3">
         <v>44943</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AY6" s="2">
         <v>10.3</v>
       </c>
-      <c r="AV6" s="2">
+      <c r="AZ6" s="2">
         <v>132</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>44943</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>255</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>44946</v>
-      </c>
-      <c r="AZ6" s="2">
-        <v>1.2</v>
       </c>
       <c r="BA6" s="3">
         <v>44943</v>
       </c>
       <c r="BB6" s="2">
+        <v>255</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>44946</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>44943</v>
+      </c>
+      <c r="BF6" s="56">
+        <f t="shared" si="4"/>
+        <v>5.7087828518623107</v>
+      </c>
+      <c r="BG6" s="56">
+        <f t="shared" si="5"/>
+        <v>1.6523632637376713</v>
+      </c>
+      <c r="BH6" s="2">
         <v>129</v>
       </c>
-      <c r="BC6" s="2">
+      <c r="BI6" s="2">
         <v>68</v>
       </c>
-      <c r="BD6" s="2">
+      <c r="BJ6" s="2">
         <v>0.3</v>
       </c>
-      <c r="BE6" s="3">
+      <c r="BK6" s="3">
         <v>45097</v>
       </c>
-      <c r="BF6" s="2">
+      <c r="BL6" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="BG6" s="2">
+      <c r="BM6" s="2">
         <v>134</v>
       </c>
-      <c r="BH6" s="3">
+      <c r="BN6" s="3">
         <v>45097</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BO6" s="2">
         <v>211</v>
       </c>
-      <c r="BJ6" s="3">
+      <c r="BP6" s="3">
         <v>45097</v>
       </c>
-      <c r="BK6" s="2">
+      <c r="BQ6" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BL6" s="3">
+      <c r="BR6" s="3">
         <v>45097</v>
       </c>
-      <c r="BM6" s="2">
+      <c r="BS6" s="56">
+        <f t="shared" si="6"/>
+        <v>0.86294596447288896</v>
+      </c>
+      <c r="BT6" s="56">
+        <f t="shared" si="7"/>
+        <v>0.13202858030444237</v>
+      </c>
+      <c r="BU6" s="2">
         <v>17</v>
       </c>
-      <c r="BN6" s="2">
+      <c r="BV6" s="2">
         <v>19</v>
       </c>
-      <c r="BO6" s="2">
+      <c r="BW6" s="2">
         <v>0.5</v>
       </c>
-      <c r="BP6" s="3">
+      <c r="BX6" s="3">
         <v>45257</v>
       </c>
-      <c r="BQ6" s="2">
+      <c r="BY6" s="2">
         <v>10.6</v>
       </c>
-      <c r="BR6" s="2">
+      <c r="BZ6" s="2">
         <v>134</v>
       </c>
-      <c r="BS6" s="3">
+      <c r="CA6" s="3">
         <v>45257</v>
       </c>
-      <c r="BT6" s="2">
+      <c r="CB6" s="2">
         <v>348</v>
       </c>
-      <c r="BU6" s="3">
+      <c r="CC6" s="3">
         <v>45259</v>
       </c>
-      <c r="BV6" s="2">
+      <c r="CD6" s="2">
         <v>1.3</v>
       </c>
-      <c r="BW6" s="3">
+      <c r="CE6" s="3">
         <v>45257</v>
       </c>
     </row>
-    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>32</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>33983</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>45506</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>0.3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>45107</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="I7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>45293</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0</v>
-      </c>
-      <c r="R7" s="10">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="K7" s="12"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0</v>
+      </c>
+      <c r="S7" s="56">
+        <f>(B7*U7)/(AB7*SQRT(V7))</f>
         <v>0.66992144366830997</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="56">
+        <f>((U7/37)/AB7)*100</f>
         <v>0.21913805697589481</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <v>18</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="9">
         <v>15</v>
       </c>
-      <c r="W7" s="10">
+      <c r="W7" s="9">
         <v>0.8</v>
       </c>
-      <c r="X7" s="11">
+      <c r="X7" s="10">
         <v>45135</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="9">
         <v>0.77</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="9">
         <v>139</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="10">
         <v>45135</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="9">
         <v>222</v>
       </c>
-      <c r="AC7" s="11">
+      <c r="AC7" s="10">
         <v>45135</v>
       </c>
-      <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="10">
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="56">
+        <f t="shared" si="0"/>
+        <v>0.64892261660982731</v>
+      </c>
+      <c r="AG7" s="56">
+        <f t="shared" si="1"/>
+        <v>0.18985928076837169</v>
+      </c>
+      <c r="AH7" s="9">
         <v>17</v>
       </c>
-      <c r="AG7" s="10">
+      <c r="AI7" s="9">
         <v>12</v>
       </c>
-      <c r="AH7" s="10">
+      <c r="AJ7" s="9">
         <v>0.4</v>
       </c>
-      <c r="AI7" s="11">
+      <c r="AK7" s="10">
         <v>45280</v>
       </c>
-      <c r="AJ7" s="10">
+      <c r="AL7" s="9">
         <v>0.85</v>
       </c>
-      <c r="AK7" s="13">
+      <c r="AM7" s="66">
         <v>141</v>
       </c>
-      <c r="AL7" s="11">
+      <c r="AN7" s="10">
         <v>45280</v>
       </c>
-      <c r="AM7" s="10">
+      <c r="AO7" s="9">
         <v>242</v>
       </c>
-      <c r="AN7" s="11">
+      <c r="AP7" s="10">
         <v>45280</v>
       </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="11"/>
-      <c r="AQ7" s="10">
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="9">
         <v>19</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AV7" s="9">
         <v>23</v>
       </c>
-      <c r="AS7" s="10">
+      <c r="AW7" s="9">
         <v>0.7</v>
       </c>
-      <c r="AT7" s="11">
+      <c r="AX7" s="10">
         <v>45294</v>
       </c>
-      <c r="AU7" s="10">
+      <c r="AY7" s="9">
         <v>0.9</v>
       </c>
-      <c r="AV7" s="10">
+      <c r="AZ7" s="9">
         <v>140</v>
       </c>
-      <c r="AW7" s="11">
+      <c r="BA7" s="10">
         <v>45294</v>
       </c>
-      <c r="AX7" s="10"/>
-      <c r="AY7" s="11"/>
-      <c r="AZ7" s="10"/>
-      <c r="BA7" s="11"/>
-      <c r="BB7" s="10">
+      <c r="BB7" s="9"/>
+      <c r="BC7" s="10"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="56">
+        <f t="shared" si="4"/>
+        <v>0.83978220973036488</v>
+      </c>
+      <c r="BG7" s="56">
+        <f t="shared" si="5"/>
+        <v>0.24570024570024571</v>
+      </c>
+      <c r="BH7" s="9">
         <v>21</v>
       </c>
-      <c r="BC7" s="10">
+      <c r="BI7" s="9">
         <v>12</v>
       </c>
-      <c r="BD7" s="10">
+      <c r="BJ7" s="9">
         <v>0.9</v>
       </c>
-      <c r="BE7" s="11">
+      <c r="BK7" s="10">
         <v>45498</v>
       </c>
-      <c r="BF7" s="10">
+      <c r="BL7" s="9">
         <v>0.76</v>
       </c>
-      <c r="BG7" s="10">
+      <c r="BM7" s="9">
         <v>137</v>
       </c>
-      <c r="BH7" s="11">
+      <c r="BN7" s="10">
         <v>45498</v>
       </c>
-      <c r="BI7" s="10">
+      <c r="BO7" s="9">
         <v>231</v>
       </c>
-      <c r="BJ7" s="11">
+      <c r="BP7" s="10">
         <v>45498</v>
       </c>
-      <c r="BK7" s="10"/>
-      <c r="BL7" s="11"/>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10"/>
-      <c r="BO7" s="10"/>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10"/>
+      <c r="BQ7" s="9"/>
       <c r="BR7" s="10"/>
-      <c r="BS7" s="10"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="10"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10"/>
+      <c r="BS7" s="56"/>
+      <c r="BT7" s="56"/>
+      <c r="BU7" s="9"/>
+      <c r="BV7" s="9"/>
+      <c r="BW7" s="9"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
     </row>
-    <row r="8" spans="1:75" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:83" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="16">
         <v>41</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>30444</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="17">
         <v>44977</v>
       </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="16">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="G8" s="44">
+      <c r="G8" s="43">
         <v>1.01</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>44888</v>
       </c>
-      <c r="I8" s="53"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
+      <c r="I8" s="52"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16">
+        <v>0</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0</v>
+      </c>
+      <c r="S8" s="56">
+        <f>(B8*U8)/(AB8*SQRT(V8))</f>
         <v>0.660563022090215</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="56">
+        <f>((U8/37)/AB8)*100</f>
         <v>0.14441922838869403</v>
       </c>
-      <c r="U8" s="17">
+      <c r="U8" s="16">
         <v>14</v>
       </c>
-      <c r="V8" s="17">
+      <c r="V8" s="16">
         <v>11</v>
       </c>
-      <c r="W8" s="17">
+      <c r="W8" s="16">
         <v>0.9</v>
       </c>
-      <c r="X8" s="18">
+      <c r="X8" s="17">
         <v>44699</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="16">
         <v>0.89</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="16">
         <v>140</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AA8" s="17">
         <v>44699</v>
       </c>
-      <c r="AB8" s="17">
+      <c r="AB8" s="16">
         <v>262</v>
       </c>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <v>44699</v>
       </c>
-      <c r="AD8" s="17"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="17">
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="56">
+        <f t="shared" si="0"/>
+        <v>0.89408099688473519</v>
+      </c>
+      <c r="AG8" s="56">
+        <f t="shared" si="1"/>
+        <v>0.17681232634503663</v>
+      </c>
+      <c r="AH8" s="16">
         <v>14</v>
       </c>
-      <c r="AG8" s="17">
+      <c r="AI8" s="16">
         <v>9</v>
       </c>
-      <c r="AH8" s="17">
+      <c r="AJ8" s="16">
         <v>0.4</v>
       </c>
-      <c r="AI8" s="18">
+      <c r="AK8" s="17">
         <v>44795</v>
       </c>
-      <c r="AJ8" s="17">
+      <c r="AL8" s="16">
         <v>0.85</v>
       </c>
-      <c r="AK8" s="17">
+      <c r="AM8" s="65">
         <v>139</v>
       </c>
-      <c r="AL8" s="18">
+      <c r="AN8" s="17">
         <v>44795</v>
       </c>
-      <c r="AM8" s="17">
+      <c r="AO8" s="16">
         <v>214</v>
       </c>
-      <c r="AN8" s="18">
+      <c r="AP8" s="17">
         <v>44795</v>
       </c>
-      <c r="AO8" s="17"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="17">
+      <c r="AQ8" s="16"/>
+      <c r="AR8" s="17"/>
+      <c r="AS8" s="56">
+        <f t="shared" si="2"/>
+        <v>0.94606875977206439</v>
+      </c>
+      <c r="AT8" s="56">
+        <f t="shared" si="3"/>
+        <v>0.20683949255377831</v>
+      </c>
+      <c r="AU8" s="16">
         <v>15</v>
       </c>
-      <c r="AR8" s="17">
+      <c r="AV8" s="16">
         <v>11</v>
       </c>
-      <c r="AS8" s="17">
+      <c r="AW8" s="16">
         <v>0.5</v>
       </c>
-      <c r="AT8" s="18">
+      <c r="AX8" s="17">
         <v>44887</v>
       </c>
-      <c r="AU8" s="17">
+      <c r="AY8" s="16">
         <v>0.9</v>
       </c>
-      <c r="AV8" s="17">
+      <c r="AZ8" s="16">
         <v>140</v>
       </c>
-      <c r="AW8" s="18">
+      <c r="BA8" s="17">
         <v>44887</v>
       </c>
-      <c r="AX8" s="17">
+      <c r="BB8" s="16">
         <v>196</v>
       </c>
-      <c r="AY8" s="18">
+      <c r="BC8" s="17">
         <v>44887</v>
       </c>
-      <c r="AZ8" s="17"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="17"/>
-      <c r="BD8" s="17"/>
+      <c r="BD8" s="16"/>
       <c r="BE8" s="17"/>
-      <c r="BF8" s="17"/>
-      <c r="BG8" s="17"/>
-      <c r="BH8" s="17"/>
-      <c r="BI8" s="17"/>
-      <c r="BJ8" s="17"/>
-      <c r="BK8" s="17"/>
-      <c r="BL8" s="17"/>
-      <c r="BM8" s="17"/>
-      <c r="BN8" s="17"/>
-      <c r="BO8" s="17"/>
-      <c r="BP8" s="17"/>
-      <c r="BQ8" s="17"/>
-      <c r="BR8" s="17"/>
-      <c r="BS8" s="17"/>
-      <c r="BT8" s="17"/>
-      <c r="BU8" s="17"/>
-      <c r="BV8" s="17"/>
-      <c r="BW8" s="17"/>
+      <c r="BF8" s="56"/>
+      <c r="BG8" s="56"/>
+      <c r="BH8" s="16"/>
+      <c r="BI8" s="16"/>
+      <c r="BJ8" s="16"/>
+      <c r="BK8" s="16"/>
+      <c r="BL8" s="16"/>
+      <c r="BM8" s="16"/>
+      <c r="BN8" s="16"/>
+      <c r="BO8" s="16"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="56"/>
+      <c r="BT8" s="56"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
+      <c r="CA8" s="16"/>
+      <c r="CB8" s="16"/>
+      <c r="CC8" s="16"/>
+      <c r="CD8" s="16"/>
+      <c r="CE8" s="16"/>
     </row>
-    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="28">
         <v>89</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>13039</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="29">
         <v>45611</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9" s="44">
         <v>1.21</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="29">
         <v>45215</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <v>0.51</v>
       </c>
-      <c r="J9" s="30">
+      <c r="J9" s="29">
         <v>45356</v>
       </c>
-      <c r="K9" s="45"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29">
-        <v>0</v>
-      </c>
-      <c r="N9" s="29">
-        <v>0</v>
-      </c>
-      <c r="O9" s="29">
-        <v>0</v>
-      </c>
-      <c r="P9" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="29">
-        <v>0</v>
-      </c>
-      <c r="R9" s="29">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
+      <c r="K9" s="44"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="O9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28">
+        <v>0</v>
+      </c>
+      <c r="S9" s="56">
+        <f>(B9*U9)/(AB9*SQRT(V9))</f>
         <v>0.89948045196601711</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="56">
+        <f>((U9/37)/AB9)*100</f>
         <v>0.12215605435944421</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="28">
         <v>16</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="28">
         <v>20</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="28">
         <v>0.7</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="29">
         <v>45215</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="28">
         <v>1.6</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="28">
         <v>126</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="29">
         <v>45215</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="28">
         <v>354</v>
       </c>
-      <c r="AC9" s="30">
+      <c r="AC9" s="29">
         <v>45215</v>
       </c>
-      <c r="AD9" s="29">
+      <c r="AD9" s="28">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="29">
         <v>45214</v>
       </c>
-      <c r="AF9" s="29">
+      <c r="AF9" s="56">
+        <f t="shared" si="0"/>
+        <v>1.1022470108034197</v>
+      </c>
+      <c r="AG9" s="56">
+        <f t="shared" si="1"/>
+        <v>0.13801035077630824</v>
+      </c>
+      <c r="AH9" s="28">
         <v>24</v>
       </c>
-      <c r="AG9" s="29">
+      <c r="AI9" s="28">
         <v>17</v>
       </c>
-      <c r="AH9" s="29">
+      <c r="AJ9" s="28">
         <v>0.6</v>
       </c>
-      <c r="AI9" s="30">
+      <c r="AK9" s="29">
         <v>45305</v>
       </c>
-      <c r="AJ9" s="29">
+      <c r="AL9" s="28">
         <v>1.3</v>
       </c>
-      <c r="AK9" s="29">
+      <c r="AM9" s="58">
         <v>128</v>
       </c>
-      <c r="AL9" s="30">
+      <c r="AN9" s="29">
         <v>45305</v>
       </c>
-      <c r="AM9" s="29">
+      <c r="AO9" s="28">
         <v>470</v>
       </c>
-      <c r="AN9" s="30">
+      <c r="AP9" s="29">
         <v>45305</v>
       </c>
-      <c r="AO9" s="29">
+      <c r="AQ9" s="28">
         <v>1.2</v>
       </c>
-      <c r="AP9" s="30">
+      <c r="AR9" s="29">
         <v>45299</v>
       </c>
-      <c r="AQ9" s="29">
+      <c r="AS9" s="56">
+        <f t="shared" si="2"/>
+        <v>1.1265822784810127</v>
+      </c>
+      <c r="AT9" s="56">
+        <f t="shared" si="3"/>
+        <v>0.13684570646595964</v>
+      </c>
+      <c r="AU9" s="28">
         <v>16</v>
       </c>
-      <c r="AR9" s="29">
+      <c r="AV9" s="28">
         <v>16</v>
       </c>
-      <c r="AS9" s="29">
+      <c r="AW9" s="28">
         <v>0.8</v>
       </c>
-      <c r="AT9" s="30">
+      <c r="AX9" s="29">
         <v>45361</v>
       </c>
-      <c r="AU9" s="29">
+      <c r="AY9" s="28">
         <v>1</v>
       </c>
-      <c r="AV9" s="29">
+      <c r="AZ9" s="28">
         <v>135</v>
       </c>
-      <c r="AW9" s="30">
+      <c r="BA9" s="29">
         <v>45361</v>
       </c>
-      <c r="AX9" s="29">
+      <c r="BB9" s="28">
         <v>316</v>
       </c>
-      <c r="AY9" s="30">
+      <c r="BC9" s="29">
         <v>45361</v>
       </c>
-      <c r="AZ9" s="29">
+      <c r="BD9" s="28">
         <v>1.2</v>
       </c>
-      <c r="BA9" s="30">
+      <c r="BE9" s="29">
         <v>45354</v>
       </c>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="29"/>
-      <c r="BD9" s="29"/>
-      <c r="BE9" s="29"/>
-      <c r="BF9" s="29"/>
-      <c r="BG9" s="29"/>
-      <c r="BH9" s="29"/>
-      <c r="BI9" s="29"/>
-      <c r="BJ9" s="29"/>
-      <c r="BK9" s="29"/>
-      <c r="BL9" s="29"/>
-      <c r="BM9" s="29"/>
-      <c r="BN9" s="29"/>
-      <c r="BO9" s="29"/>
-      <c r="BP9" s="29"/>
-      <c r="BQ9" s="29"/>
-      <c r="BR9" s="29"/>
-      <c r="BS9" s="29"/>
-      <c r="BT9" s="29"/>
-      <c r="BU9" s="29"/>
-      <c r="BV9" s="29"/>
-      <c r="BW9" s="29"/>
+      <c r="BF9" s="56"/>
+      <c r="BG9" s="56"/>
+      <c r="BH9" s="28"/>
+      <c r="BI9" s="28"/>
+      <c r="BJ9" s="28"/>
+      <c r="BK9" s="28"/>
+      <c r="BL9" s="28"/>
+      <c r="BM9" s="28"/>
+      <c r="BN9" s="28"/>
+      <c r="BO9" s="28"/>
+      <c r="BP9" s="28"/>
+      <c r="BQ9" s="28"/>
+      <c r="BR9" s="28"/>
+      <c r="BS9" s="56"/>
+      <c r="BT9" s="56"/>
+      <c r="BU9" s="28"/>
+      <c r="BV9" s="28"/>
+      <c r="BW9" s="28"/>
+      <c r="BX9" s="28"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="28"/>
+      <c r="CA9" s="28"/>
+      <c r="CB9" s="28"/>
+      <c r="CC9" s="28"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="28"/>
     </row>
-    <row r="10" spans="1:75" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:83" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="24">
         <v>74</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="25">
         <v>18636</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="25">
         <v>45679</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>1</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>1.68</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="25">
         <v>45678</v>
       </c>
-      <c r="I10" s="46"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25">
-        <v>0</v>
-      </c>
-      <c r="N10" s="25">
-        <v>0</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="25">
-        <v>0</v>
-      </c>
-      <c r="R10" s="25">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="I10" s="45"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="24">
+        <v>0</v>
+      </c>
+      <c r="R10" s="24">
+        <v>0</v>
+      </c>
+      <c r="S10" s="56">
+        <f>(B10*U10)/(AB10*SQRT(V10))</f>
         <v>2.060286930390967</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="56">
+        <f>((U10/37)/AB10)*100</f>
         <v>0.32799790081343477</v>
       </c>
-      <c r="U10" s="25">
+      <c r="U10" s="24">
         <v>25</v>
       </c>
-      <c r="V10" s="25">
+      <c r="V10" s="24">
         <v>19</v>
       </c>
-      <c r="W10" s="25">
+      <c r="W10" s="24">
         <v>0.6</v>
       </c>
-      <c r="X10" s="26">
+      <c r="X10" s="25">
         <v>45676</v>
       </c>
-      <c r="Y10" s="25">
+      <c r="Y10" s="24">
         <v>1.8</v>
       </c>
-      <c r="Z10" s="25">
+      <c r="Z10" s="24">
         <v>138</v>
       </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="25">
         <v>45676</v>
       </c>
-      <c r="AB10" s="25">
+      <c r="AB10" s="24">
         <v>206</v>
       </c>
-      <c r="AC10" s="26">
+      <c r="AC10" s="25">
         <v>45676</v>
       </c>
-      <c r="AD10" s="25">
+      <c r="AD10" s="24">
         <v>0.9</v>
       </c>
-      <c r="AE10" s="26">
+      <c r="AE10" s="25">
         <v>45676</v>
       </c>
-      <c r="AF10" s="25">
+      <c r="AF10" s="56">
+        <f t="shared" si="0"/>
+        <v>2.236579637344033</v>
+      </c>
+      <c r="AG10" s="56">
+        <f t="shared" si="1"/>
+        <v>0.29452529452529458</v>
+      </c>
+      <c r="AH10" s="24">
         <v>17</v>
       </c>
-      <c r="AG10" s="25">
+      <c r="AI10" s="24">
         <v>13</v>
       </c>
-      <c r="AH10" s="25">
+      <c r="AJ10" s="24">
         <v>0.7</v>
       </c>
-      <c r="AI10" s="26">
+      <c r="AK10" s="25">
         <v>45677</v>
       </c>
-      <c r="AJ10" s="25">
+      <c r="AL10" s="24">
         <v>1.9</v>
       </c>
-      <c r="AK10" s="25">
+      <c r="AM10" s="63">
         <v>137</v>
       </c>
-      <c r="AL10" s="26">
+      <c r="AN10" s="25">
         <v>45677</v>
       </c>
-      <c r="AM10" s="25">
+      <c r="AO10" s="24">
         <v>156</v>
       </c>
-      <c r="AN10" s="26">
+      <c r="AP10" s="25">
         <v>45677</v>
       </c>
-      <c r="AO10" s="25">
+      <c r="AQ10" s="24">
         <v>0.9</v>
       </c>
-      <c r="AP10" s="26">
+      <c r="AR10" s="25">
         <v>45677</v>
       </c>
-      <c r="AQ10" s="25"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="25"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="25"/>
-      <c r="AV10" s="25"/>
-      <c r="AW10" s="25"/>
-      <c r="AX10" s="25"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="25"/>
-      <c r="BB10" s="25"/>
-      <c r="BC10" s="25"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="25"/>
-      <c r="BF10" s="25"/>
-      <c r="BG10" s="25"/>
-      <c r="BH10" s="25"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="25"/>
-      <c r="BK10" s="25"/>
-      <c r="BL10" s="25"/>
-      <c r="BM10" s="25"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="25"/>
-      <c r="BP10" s="25"/>
-      <c r="BQ10" s="25"/>
-      <c r="BR10" s="25"/>
-      <c r="BS10" s="25"/>
-      <c r="BT10" s="25"/>
-      <c r="BU10" s="25"/>
-      <c r="BV10" s="25"/>
-      <c r="BW10" s="25"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="24"/>
+      <c r="AV10" s="24"/>
+      <c r="AW10" s="24"/>
+      <c r="AX10" s="24"/>
+      <c r="AY10" s="24"/>
+      <c r="AZ10" s="24"/>
+      <c r="BA10" s="24"/>
+      <c r="BB10" s="24"/>
+      <c r="BC10" s="24"/>
+      <c r="BD10" s="24"/>
+      <c r="BE10" s="24"/>
+      <c r="BF10" s="56"/>
+      <c r="BG10" s="56"/>
+      <c r="BH10" s="24"/>
+      <c r="BI10" s="24"/>
+      <c r="BJ10" s="24"/>
+      <c r="BK10" s="24"/>
+      <c r="BL10" s="24"/>
+      <c r="BM10" s="24"/>
+      <c r="BN10" s="24"/>
+      <c r="BO10" s="24"/>
+      <c r="BP10" s="24"/>
+      <c r="BQ10" s="24"/>
+      <c r="BR10" s="24"/>
+      <c r="BS10" s="56"/>
+      <c r="BT10" s="56"/>
+      <c r="BU10" s="24"/>
+      <c r="BV10" s="24"/>
+      <c r="BW10" s="24"/>
+      <c r="BX10" s="24"/>
+      <c r="BY10" s="24"/>
+      <c r="BZ10" s="24"/>
+      <c r="CA10" s="24"/>
+      <c r="CB10" s="24"/>
+      <c r="CC10" s="24"/>
+      <c r="CD10" s="24"/>
+      <c r="CE10" s="24"/>
     </row>
-    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>43</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="23">
         <v>29909</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="23">
         <v>45502</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <v>1</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="46">
         <v>1.77</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <v>45500</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23">
-        <v>0</v>
-      </c>
-      <c r="N11" s="23">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
-        <v>0</v>
-      </c>
-      <c r="P11" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23">
-        <v>0</v>
-      </c>
-      <c r="R11" s="23">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="I11" s="46"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="56">
+        <f>(B11*U11)/(AB11*SQRT(V11))</f>
         <v>0.26817740721283628</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="56">
+        <f>((U11/37)/AB11)*100</f>
         <v>0.1025304515441086</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="22">
         <v>25</v>
       </c>
-      <c r="V11" s="23">
+      <c r="V11" s="22">
         <v>37</v>
       </c>
-      <c r="W11" s="23">
+      <c r="W11" s="22">
         <v>1</v>
       </c>
-      <c r="X11" s="24">
+      <c r="X11" s="23">
         <v>45498</v>
       </c>
-      <c r="Y11" s="23">
+      <c r="Y11" s="22">
         <v>1</v>
       </c>
-      <c r="Z11" s="23">
+      <c r="Z11" s="22">
         <v>137</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AA11" s="23">
         <v>45498</v>
       </c>
-      <c r="AB11" s="23">
+      <c r="AB11" s="22">
         <v>659</v>
       </c>
-      <c r="AC11" s="24">
+      <c r="AC11" s="23">
         <v>45498</v>
       </c>
-      <c r="AD11" s="23">
+      <c r="AD11" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="23">
         <v>45498</v>
       </c>
-      <c r="AF11" s="23">
+      <c r="AF11" s="56">
+        <f t="shared" si="0"/>
+        <v>0.26409690294609195</v>
+      </c>
+      <c r="AG11" s="56">
+        <f t="shared" si="1"/>
+        <v>8.1320258311408752E-2</v>
+      </c>
+      <c r="AH11" s="22">
         <v>17</v>
       </c>
-      <c r="AG11" s="23">
+      <c r="AI11" s="22">
         <v>24</v>
       </c>
-      <c r="AH11" s="23">
+      <c r="AJ11" s="22">
         <v>0.7</v>
       </c>
-      <c r="AI11" s="24">
+      <c r="AK11" s="23">
         <v>45499</v>
       </c>
-      <c r="AJ11" s="23">
+      <c r="AL11" s="22">
         <v>0.8</v>
       </c>
-      <c r="AK11" s="23">
+      <c r="AM11" s="64">
         <v>142</v>
       </c>
-      <c r="AL11" s="24">
+      <c r="AN11" s="23">
         <v>45499</v>
       </c>
-      <c r="AM11" s="23">
+      <c r="AO11" s="22">
         <v>565</v>
       </c>
-      <c r="AN11" s="24">
+      <c r="AP11" s="23">
         <v>45499</v>
       </c>
-      <c r="AO11" s="23">
+      <c r="AQ11" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AP11" s="24">
+      <c r="AR11" s="23">
         <v>45499</v>
       </c>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="23"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
-      <c r="BN11" s="23"/>
-      <c r="BO11" s="23"/>
-      <c r="BP11" s="23"/>
-      <c r="BQ11" s="23"/>
-      <c r="BR11" s="23"/>
-      <c r="BS11" s="23"/>
-      <c r="BT11" s="23"/>
-      <c r="BU11" s="23"/>
-      <c r="BV11" s="23"/>
-      <c r="BW11" s="23"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="22"/>
+      <c r="AV11" s="22"/>
+      <c r="AW11" s="22"/>
+      <c r="AX11" s="22"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="22"/>
+      <c r="BA11" s="22"/>
+      <c r="BB11" s="22"/>
+      <c r="BC11" s="22"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="22"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="22"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="22"/>
+      <c r="BK11" s="22"/>
+      <c r="BL11" s="22"/>
+      <c r="BM11" s="22"/>
+      <c r="BN11" s="22"/>
+      <c r="BO11" s="22"/>
+      <c r="BP11" s="22"/>
+      <c r="BQ11" s="22"/>
+      <c r="BR11" s="22"/>
+      <c r="BS11" s="56"/>
+      <c r="BT11" s="56"/>
+      <c r="BU11" s="22"/>
+      <c r="BV11" s="22"/>
+      <c r="BW11" s="22"/>
+      <c r="BX11" s="22"/>
+      <c r="BY11" s="22"/>
+      <c r="BZ11" s="22"/>
+      <c r="CA11" s="22"/>
+      <c r="CB11" s="22"/>
+      <c r="CC11" s="22"/>
+      <c r="CD11" s="22"/>
+      <c r="CE11" s="22"/>
     </row>
-    <row r="12" spans="1:75" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:83" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3410,19 +3736,19 @@
       <c r="F12" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G12" s="42">
+      <c r="G12" s="41">
         <v>2</v>
       </c>
       <c r="H12" s="3">
         <v>44729</v>
       </c>
-      <c r="I12" s="42">
+      <c r="I12" s="41">
         <v>0.1</v>
       </c>
       <c r="J12" s="3">
         <v>45046</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>0.1</v>
       </c>
       <c r="L12" s="3">
@@ -3446,10 +3772,12 @@
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="56">
+        <f>(B12*U12)/(AB12*SQRT(V12))</f>
         <v>0.83628318584070793</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="56">
+        <f>((U12/37)/AB12)*100</f>
         <v>0.11161604081958065</v>
       </c>
       <c r="U12" s="2">
@@ -3485,140 +3813,172 @@
       <c r="AE12" s="3">
         <v>44735</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="56">
+        <f t="shared" si="0"/>
+        <v>47.575682746335758</v>
+      </c>
+      <c r="AG12" s="56">
+        <f t="shared" si="1"/>
+        <v>82.821357943309152</v>
+      </c>
+      <c r="AH12" s="2">
         <v>6282</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AI12" s="2">
         <v>2722</v>
       </c>
-      <c r="AH12" s="2">
+      <c r="AJ12" s="2">
         <v>1</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AK12" s="3">
         <v>45050</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AL12" s="2">
         <v>2.6</v>
       </c>
-      <c r="AK12" s="2">
+      <c r="AM12" s="60">
         <v>132</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>45050</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>205</v>
       </c>
       <c r="AN12" s="3">
         <v>45050</v>
       </c>
       <c r="AO12" s="2">
-        <v>1.7</v>
+        <v>205</v>
       </c>
       <c r="AP12" s="3">
         <v>45050</v>
       </c>
       <c r="AQ12" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="AR12" s="3">
+        <v>45050</v>
+      </c>
+      <c r="AS12" s="56">
+        <f t="shared" si="2"/>
+        <v>1.08</v>
+      </c>
+      <c r="AT12" s="56">
+        <f t="shared" si="3"/>
+        <v>0.10810810810810811</v>
+      </c>
+      <c r="AU12" s="2">
         <v>11</v>
       </c>
-      <c r="AR12" s="2">
+      <c r="AV12" s="2">
         <v>9</v>
       </c>
-      <c r="AS12" s="2">
+      <c r="AW12" s="2">
         <v>0.6</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AX12" s="3">
         <v>45267</v>
       </c>
-      <c r="AU12" s="2">
+      <c r="AY12" s="2">
         <v>3.6</v>
       </c>
-      <c r="AV12" s="2">
+      <c r="AZ12" s="2">
         <v>133</v>
       </c>
-      <c r="AW12" s="3">
+      <c r="BA12" s="3">
         <v>45267</v>
       </c>
-      <c r="AX12" s="2">
+      <c r="BB12" s="2">
         <v>275</v>
       </c>
-      <c r="AY12" s="3">
+      <c r="BC12" s="3">
         <v>45267</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="BD12" s="2">
         <v>1</v>
       </c>
-      <c r="BA12" s="3">
+      <c r="BE12" s="3">
         <v>45261</v>
       </c>
-      <c r="BB12" s="2">
+      <c r="BF12" s="56">
+        <f t="shared" si="4"/>
+        <v>0.65781954457523395</v>
+      </c>
+      <c r="BG12" s="56">
+        <f t="shared" si="5"/>
+        <v>0.14224751066856331</v>
+      </c>
+      <c r="BH12" s="2">
         <v>17</v>
       </c>
-      <c r="BC12" s="2">
+      <c r="BI12" s="2">
         <v>42</v>
       </c>
-      <c r="BD12" s="2">
+      <c r="BJ12" s="2">
         <v>0.8</v>
       </c>
-      <c r="BE12" s="3">
+      <c r="BK12" s="3">
         <v>45287</v>
       </c>
-      <c r="BF12" s="2">
+      <c r="BL12" s="2">
         <v>5.2</v>
       </c>
-      <c r="BG12" s="2">
+      <c r="BM12" s="2">
         <v>133</v>
       </c>
-      <c r="BH12" s="3">
+      <c r="BN12" s="3">
         <v>45287</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BO12" s="2">
         <v>323</v>
       </c>
-      <c r="BJ12" s="3">
+      <c r="BP12" s="3">
         <v>45287</v>
       </c>
-      <c r="BK12" s="2">
+      <c r="BQ12" s="2">
         <v>1</v>
       </c>
-      <c r="BL12" s="3">
+      <c r="BR12" s="3">
         <v>45285</v>
       </c>
-      <c r="BM12" s="2">
+      <c r="BS12" s="56">
+        <f t="shared" si="6"/>
+        <v>3.170394205285775</v>
+      </c>
+      <c r="BT12" s="56">
+        <f t="shared" si="7"/>
+        <v>0.96954096954096958</v>
+      </c>
+      <c r="BU12" s="2">
         <v>113</v>
       </c>
-      <c r="BN12" s="2">
+      <c r="BV12" s="2">
         <v>84</v>
       </c>
-      <c r="BO12" s="2">
+      <c r="BW12" s="2">
         <v>1.3</v>
       </c>
-      <c r="BP12" s="3">
+      <c r="BX12" s="3">
         <v>45292</v>
       </c>
-      <c r="BQ12" s="2">
+      <c r="BY12" s="2">
         <v>5.9</v>
       </c>
-      <c r="BR12" s="2">
+      <c r="BZ12" s="2">
         <v>139</v>
       </c>
-      <c r="BS12" s="3">
+      <c r="CA12" s="3">
         <v>45292</v>
       </c>
-      <c r="BT12" s="2">
+      <c r="CB12" s="2">
         <v>315</v>
       </c>
-      <c r="BU12" s="3">
+      <c r="CC12" s="3">
         <v>45292</v>
       </c>
-      <c r="BV12" s="2">
+      <c r="CD12" s="2">
         <v>1.4</v>
       </c>
-      <c r="BW12" s="3">
+      <c r="CE12" s="3">
         <v>45292</v>
       </c>
     </row>
-    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3637,7 +3997,7 @@
       <c r="F13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="42">
+      <c r="G13" s="41">
         <v>3.43</v>
       </c>
       <c r="H13" s="3">
@@ -3661,10 +4021,12 @@
       <c r="R13" s="2">
         <v>0</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S13" s="56">
+        <f>(B13*U13)/(AB13*SQRT(V13))</f>
         <v>3.7554493552160735</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="56">
+        <f>((U13/37)/AB13)*100</f>
         <v>1.0395010395010396</v>
       </c>
       <c r="U13" s="2">
@@ -3700,281 +4062,323 @@
       <c r="AE13" s="3">
         <v>45308</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="56">
+        <f t="shared" si="0"/>
+        <v>1.5173318418748571</v>
+      </c>
+      <c r="AG13" s="56">
+        <f t="shared" si="1"/>
+        <v>0.24453024453024449</v>
+      </c>
+      <c r="AH13" s="2">
         <v>19</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AI13" s="2">
         <v>20</v>
       </c>
-      <c r="AH13" s="2">
+      <c r="AJ13" s="2">
         <v>0.6</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AK13" s="3">
         <v>45402</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AL13" s="2">
         <v>1.5</v>
       </c>
-      <c r="AK13" s="2">
+      <c r="AM13" s="60">
         <v>134</v>
-      </c>
-      <c r="AL13" s="3">
-        <v>45402</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>210</v>
       </c>
       <c r="AN13" s="3">
         <v>45402</v>
       </c>
       <c r="AO13" s="2">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="AP13" s="3">
         <v>45402</v>
       </c>
       <c r="AQ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="3">
+        <v>45402</v>
+      </c>
+      <c r="AS13" s="56">
+        <f t="shared" si="2"/>
+        <v>1.3077367360102499</v>
+      </c>
+      <c r="AT13" s="56">
+        <f t="shared" si="3"/>
+        <v>0.22103888274891992</v>
+      </c>
+      <c r="AU13" s="2">
         <v>22</v>
       </c>
-      <c r="AR13" s="2">
+      <c r="AV13" s="2">
         <v>22</v>
       </c>
-      <c r="AS13" s="2">
+      <c r="AW13" s="2">
         <v>0.5</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AX13" s="3">
         <v>45498</v>
       </c>
-      <c r="AU13" s="2">
+      <c r="AY13" s="2">
         <v>2.1</v>
       </c>
-      <c r="AV13" s="2">
+      <c r="AZ13" s="2">
         <v>134</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>45498</v>
-      </c>
-      <c r="AX13" s="2">
-        <v>269</v>
-      </c>
-      <c r="AY13" s="3">
-        <v>45498</v>
-      </c>
-      <c r="AZ13" s="2">
-        <v>1.3</v>
       </c>
       <c r="BA13" s="3">
         <v>45498</v>
       </c>
       <c r="BB13" s="2">
+        <v>269</v>
+      </c>
+      <c r="BC13" s="3">
+        <v>45498</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="BE13" s="3">
+        <v>45498</v>
+      </c>
+      <c r="BF13" s="56">
+        <f t="shared" si="4"/>
+        <v>1.5485380294638971</v>
+      </c>
+      <c r="BG13" s="56">
+        <f t="shared" si="5"/>
+        <v>0.17646512491873315</v>
+      </c>
+      <c r="BH13" s="2">
         <v>19</v>
       </c>
-      <c r="BC13" s="2">
+      <c r="BI13" s="2">
         <v>10</v>
       </c>
-      <c r="BD13" s="2">
+      <c r="BJ13" s="2">
         <v>0.6</v>
       </c>
-      <c r="BE13" s="3">
+      <c r="BK13" s="3">
         <v>45593</v>
       </c>
-      <c r="BF13" s="2">
+      <c r="BL13" s="2">
         <v>1.2</v>
       </c>
-      <c r="BG13" s="2">
+      <c r="BM13" s="2">
         <v>133</v>
       </c>
-      <c r="BH13" s="3">
+      <c r="BN13" s="3">
         <v>45593</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BO13" s="2">
         <v>291</v>
       </c>
-      <c r="BJ13" s="3">
+      <c r="BP13" s="3">
         <v>45593</v>
       </c>
-      <c r="BK13" s="2">
+      <c r="BQ13" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BL13" s="3">
+      <c r="BR13" s="3">
         <v>45592</v>
       </c>
-      <c r="BM13" s="2">
+      <c r="BS13" s="56">
+        <f t="shared" si="6"/>
+        <v>7.6533901093103349</v>
+      </c>
+      <c r="BT13" s="56">
+        <f t="shared" si="7"/>
+        <v>1.0319410319410318</v>
+      </c>
+      <c r="BU13" s="2">
         <v>63</v>
       </c>
-      <c r="BN13" s="2">
+      <c r="BV13" s="2">
         <v>14</v>
       </c>
-      <c r="BO13" s="2">
+      <c r="BW13" s="2">
         <v>0.3</v>
       </c>
-      <c r="BP13" s="3">
+      <c r="BX13" s="3">
         <v>45637</v>
       </c>
-      <c r="BQ13" s="2">
+      <c r="BY13" s="2">
         <v>1.8</v>
       </c>
-      <c r="BR13" s="2">
+      <c r="BZ13" s="2">
         <v>129</v>
       </c>
-      <c r="BS13" s="3">
+      <c r="CA13" s="3">
         <v>45637</v>
       </c>
-      <c r="BT13" s="2">
+      <c r="CB13" s="2">
         <v>165</v>
       </c>
-      <c r="BU13" s="3">
+      <c r="CC13" s="3">
         <v>45637</v>
       </c>
-      <c r="BV13" s="2">
+      <c r="CD13" s="2">
         <v>1.3</v>
       </c>
-      <c r="BW13" s="3">
+      <c r="CE13" s="3">
         <v>45637</v>
       </c>
     </row>
-    <row r="14" spans="1:75" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:83" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>76</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>17581</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>45609</v>
       </c>
-      <c r="E14" s="14">
-        <v>0</v>
-      </c>
-      <c r="F14" s="16" t="s">
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="47">
         <v>3.44</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="14">
         <v>45231</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14">
-        <v>0</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>0</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="14">
-        <v>0</v>
-      </c>
-      <c r="R14" s="14">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="I14" s="53"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="56">
+        <f>(B14*U14)/(AB14*SQRT(V14))</f>
         <v>0.80952730542662554</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="56">
+        <f>((U14/37)/AB14)*100</f>
         <v>0.14679215957171229</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="13">
         <v>17</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="13">
         <v>26</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="13">
         <v>0.6</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="14">
         <v>45050</v>
       </c>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="15">
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="14">
         <v>45050</v>
       </c>
-      <c r="AB14" s="14">
+      <c r="AB14" s="13">
         <v>313</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC14" s="14">
         <v>45050</v>
       </c>
-      <c r="AD14" s="14">
+      <c r="AD14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE14" s="14">
         <v>45050</v>
       </c>
-      <c r="AF14" s="14">
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="13">
         <v>14</v>
       </c>
-      <c r="AG14" s="14">
+      <c r="AI14" s="13">
         <v>23</v>
       </c>
-      <c r="AH14" s="14">
+      <c r="AJ14" s="13">
         <v>0.5</v>
       </c>
-      <c r="AI14" s="15">
+      <c r="AK14" s="14">
         <v>45237</v>
       </c>
-      <c r="AJ14" s="14">
+      <c r="AL14" s="13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK14" s="14">
+      <c r="AM14" s="67">
         <v>141</v>
       </c>
-      <c r="AL14" s="15">
+      <c r="AN14" s="14">
         <v>45237</v>
       </c>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="15"/>
-      <c r="AQ14" s="14"/>
+      <c r="AO14" s="13"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="13"/>
       <c r="AR14" s="14"/>
-      <c r="AS14" s="14"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="14"/>
-      <c r="AW14" s="14"/>
-      <c r="AX14" s="14"/>
-      <c r="AY14" s="14"/>
-      <c r="AZ14" s="14"/>
-      <c r="BA14" s="14"/>
-      <c r="BB14" s="14"/>
-      <c r="BC14" s="14"/>
-      <c r="BD14" s="14"/>
-      <c r="BE14" s="14"/>
-      <c r="BF14" s="14"/>
-      <c r="BG14" s="14"/>
-      <c r="BH14" s="14"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="14"/>
-      <c r="BK14" s="14"/>
-      <c r="BL14" s="14"/>
-      <c r="BM14" s="14"/>
-      <c r="BN14" s="14"/>
-      <c r="BO14" s="14"/>
-      <c r="BP14" s="14"/>
-      <c r="BQ14" s="14"/>
-      <c r="BR14" s="14"/>
-      <c r="BS14" s="14"/>
-      <c r="BT14" s="14"/>
-      <c r="BU14" s="14"/>
-      <c r="BV14" s="14"/>
-      <c r="BW14" s="14"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="13"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="13"/>
+      <c r="AX14" s="13"/>
+      <c r="AY14" s="13"/>
+      <c r="AZ14" s="13"/>
+      <c r="BA14" s="13"/>
+      <c r="BB14" s="13"/>
+      <c r="BC14" s="13"/>
+      <c r="BD14" s="13"/>
+      <c r="BE14" s="13"/>
+      <c r="BF14" s="56"/>
+      <c r="BG14" s="56"/>
+      <c r="BH14" s="13"/>
+      <c r="BI14" s="13"/>
+      <c r="BJ14" s="13"/>
+      <c r="BK14" s="13"/>
+      <c r="BL14" s="13"/>
+      <c r="BM14" s="13"/>
+      <c r="BN14" s="13"/>
+      <c r="BO14" s="13"/>
+      <c r="BP14" s="13"/>
+      <c r="BQ14" s="13"/>
+      <c r="BR14" s="13"/>
+      <c r="BS14" s="56"/>
+      <c r="BT14" s="56"/>
+      <c r="BU14" s="13"/>
+      <c r="BV14" s="13"/>
+      <c r="BW14" s="13"/>
+      <c r="BX14" s="13"/>
+      <c r="BY14" s="13"/>
+      <c r="BZ14" s="13"/>
+      <c r="CA14" s="13"/>
+      <c r="CB14" s="13"/>
+      <c r="CC14" s="13"/>
+      <c r="CD14" s="13"/>
+      <c r="CE14" s="13"/>
     </row>
-    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3993,13 +4397,13 @@
       <c r="F15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="42">
+      <c r="G15" s="41">
         <v>314</v>
       </c>
       <c r="H15" s="3">
         <v>44062</v>
       </c>
-      <c r="I15" s="42">
+      <c r="I15" s="41">
         <v>1000</v>
       </c>
       <c r="J15" s="3">
@@ -4023,10 +4427,12 @@
       <c r="R15" s="2">
         <v>0</v>
       </c>
-      <c r="S15" s="2">
+      <c r="S15" s="56">
+        <f>(B15*U15)/(AB15*SQRT(V15))</f>
         <v>7.6845498037827609</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="56">
+        <f>((U15/37)/AB15)*100</f>
         <v>1.9914651493598861</v>
       </c>
       <c r="U15" s="2">
@@ -4062,347 +4468,413 @@
       <c r="AE15" s="3">
         <v>44063</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="56">
+        <f t="shared" si="0"/>
+        <v>7.6646391065712045</v>
+      </c>
+      <c r="AG15" s="56">
+        <f t="shared" si="1"/>
+        <v>3.7625861155272915</v>
+      </c>
+      <c r="AH15" s="2">
         <v>71</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AI15" s="2">
         <v>61</v>
       </c>
-      <c r="AH15" s="2">
+      <c r="AJ15" s="2">
         <v>1.7</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AK15" s="3">
         <v>44432</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AL15" s="2">
         <v>0.8</v>
       </c>
-      <c r="AK15" s="2">
+      <c r="AM15" s="60">
         <v>141</v>
-      </c>
-      <c r="AL15" s="3">
-        <v>44432</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>51</v>
       </c>
       <c r="AN15" s="3">
         <v>44432</v>
       </c>
       <c r="AO15" s="2">
+        <v>51</v>
+      </c>
+      <c r="AP15" s="3">
+        <v>44432</v>
+      </c>
+      <c r="AQ15" s="2">
         <v>1.5</v>
       </c>
-      <c r="AP15" s="6">
+      <c r="AR15" s="23">
         <v>44452</v>
       </c>
-      <c r="AQ15" s="2">
+      <c r="AS15" s="56">
+        <f t="shared" si="2"/>
+        <v>5.4209337358374663</v>
+      </c>
+      <c r="AT15" s="56">
+        <f t="shared" si="3"/>
+        <v>2.4570024570024569</v>
+      </c>
+      <c r="AU15" s="2">
         <v>50</v>
       </c>
-      <c r="AR15" s="2">
+      <c r="AV15" s="2">
         <v>52</v>
       </c>
-      <c r="AS15" s="2">
+      <c r="AW15" s="2">
         <v>0.6</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AX15" s="3">
         <v>44867</v>
       </c>
-      <c r="AU15" s="2">
+      <c r="AY15" s="2">
         <v>0.8</v>
       </c>
-      <c r="AV15" s="2">
+      <c r="AZ15" s="2">
         <v>141</v>
-      </c>
-      <c r="AW15" s="3">
-        <v>44867</v>
-      </c>
-      <c r="AX15" s="2">
-        <v>55</v>
-      </c>
-      <c r="AY15" s="3">
-        <v>44867</v>
-      </c>
-      <c r="AZ15" s="2">
-        <v>1.6</v>
       </c>
       <c r="BA15" s="3">
         <v>44867</v>
       </c>
       <c r="BB15" s="2">
+        <v>55</v>
+      </c>
+      <c r="BC15" s="3">
+        <v>44867</v>
+      </c>
+      <c r="BD15" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="BE15" s="3">
+        <v>44867</v>
+      </c>
+      <c r="BF15" s="56">
+        <f t="shared" si="4"/>
+        <v>3.5187634800553775</v>
+      </c>
+      <c r="BG15" s="56">
+        <f t="shared" si="5"/>
+        <v>1.0135135135135136</v>
+      </c>
+      <c r="BH15" s="2">
         <v>30</v>
       </c>
-      <c r="BC15" s="2">
+      <c r="BI15" s="2">
         <v>21</v>
       </c>
-      <c r="BD15" s="2">
+      <c r="BJ15" s="2">
         <v>0.8</v>
       </c>
-      <c r="BE15" s="3">
+      <c r="BK15" s="3">
         <v>45030</v>
       </c>
-      <c r="BF15" s="2">
+      <c r="BL15" s="2">
         <v>0.5</v>
       </c>
-      <c r="BG15" s="2">
+      <c r="BM15" s="2">
         <v>141</v>
       </c>
-      <c r="BH15" s="3">
+      <c r="BN15" s="3">
         <v>45030</v>
       </c>
-      <c r="BI15" s="2">
+      <c r="BO15" s="2">
         <v>80</v>
       </c>
-      <c r="BJ15" s="3">
+      <c r="BP15" s="3">
         <v>45030</v>
       </c>
-      <c r="BK15" s="2">
+      <c r="BQ15" s="2">
         <v>1.7</v>
       </c>
-      <c r="BL15" s="3">
+      <c r="BR15" s="3">
         <v>45029</v>
       </c>
-      <c r="BM15" s="2">
+      <c r="BS15" s="56">
+        <f t="shared" si="6"/>
+        <v>12.96709053146507</v>
+      </c>
+      <c r="BT15" s="56">
+        <f t="shared" si="7"/>
+        <v>6.9157392686804444</v>
+      </c>
+      <c r="BU15" s="2">
         <v>87</v>
       </c>
-      <c r="BN15" s="2">
+      <c r="BV15" s="2">
         <v>72</v>
       </c>
-      <c r="BO15" s="2">
+      <c r="BW15" s="2">
         <v>1.2</v>
       </c>
-      <c r="BP15" s="3">
+      <c r="BX15" s="3">
         <v>45414</v>
       </c>
-      <c r="BQ15" s="2">
+      <c r="BY15" s="2">
         <v>0.9</v>
       </c>
-      <c r="BR15" s="2">
+      <c r="BZ15" s="2">
         <v>143</v>
       </c>
-      <c r="BS15" s="3">
+      <c r="CA15" s="3">
         <v>45414</v>
       </c>
-      <c r="BT15" s="2">
+      <c r="CB15" s="2">
         <v>34</v>
       </c>
-      <c r="BU15" s="3">
+      <c r="CC15" s="3">
         <v>45414</v>
       </c>
-      <c r="BV15" s="2">
+      <c r="CD15" s="2">
         <v>1.7</v>
       </c>
-      <c r="BW15" s="3">
+      <c r="CE15" s="3">
         <v>45414</v>
       </c>
     </row>
-    <row r="16" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:83" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>40</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="23">
         <v>30720</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="23">
         <v>45761</v>
       </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="49">
+      <c r="G16" s="48">
         <v>861.15</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <v>45388</v>
       </c>
-      <c r="I16" s="47" t="s">
+      <c r="I16" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="23">
         <v>45395</v>
       </c>
-      <c r="K16" s="47"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23">
-        <v>0</v>
-      </c>
-      <c r="N16" s="23">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23">
-        <v>0</v>
-      </c>
-      <c r="P16" s="23">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="23">
-        <v>0</v>
-      </c>
-      <c r="R16" s="23">
-        <v>0</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="K16" s="46"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="22">
+        <v>0</v>
+      </c>
+      <c r="R16" s="22">
+        <v>0</v>
+      </c>
+      <c r="S16" s="56">
+        <f>(B16*U16)/(AB16*SQRT(V16))</f>
         <v>0.71178343763414353</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="56">
+        <f>((U16/37)/AB16)*100</f>
         <v>0.3468069839751256</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="22">
         <v>29</v>
       </c>
-      <c r="V16" s="23">
+      <c r="V16" s="22">
         <v>52</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="22">
         <v>0.6</v>
       </c>
-      <c r="X16" s="24">
+      <c r="X16" s="23">
         <v>45386</v>
       </c>
-      <c r="Y16" s="23">
+      <c r="Y16" s="22">
         <v>1</v>
       </c>
-      <c r="Z16" s="23">
+      <c r="Z16" s="22">
         <v>139</v>
       </c>
-      <c r="AA16" s="24">
+      <c r="AA16" s="23">
         <v>45386</v>
       </c>
-      <c r="AB16" s="23">
+      <c r="AB16" s="22">
         <v>226</v>
       </c>
-      <c r="AC16" s="24">
+      <c r="AC16" s="23">
         <v>45386</v>
       </c>
-      <c r="AD16" s="23">
+      <c r="AD16" s="22">
         <v>1.7</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16" s="23">
         <v>45396</v>
       </c>
-      <c r="AF16" s="23">
+      <c r="AF16" s="56">
+        <f t="shared" si="0"/>
+        <v>0.73136045611157241</v>
+      </c>
+      <c r="AG16" s="56">
+        <f t="shared" si="1"/>
+        <v>0.48669359014186597</v>
+      </c>
+      <c r="AH16" s="22">
         <v>47</v>
       </c>
-      <c r="AG16" s="23">
+      <c r="AI16" s="22">
         <v>97</v>
       </c>
-      <c r="AH16" s="23">
+      <c r="AJ16" s="22">
         <v>1</v>
       </c>
-      <c r="AI16" s="24">
+      <c r="AK16" s="23">
         <v>45516</v>
       </c>
-      <c r="AJ16" s="23">
+      <c r="AL16" s="22">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AK16" s="23">
+      <c r="AM16" s="64">
         <v>138</v>
       </c>
-      <c r="AL16" s="24">
+      <c r="AN16" s="23">
         <v>45516</v>
       </c>
-      <c r="AM16" s="23">
+      <c r="AO16" s="22">
         <v>261</v>
       </c>
-      <c r="AN16" s="24">
+      <c r="AP16" s="23">
         <v>45516</v>
       </c>
-      <c r="AO16" s="23"/>
-      <c r="AP16" s="23"/>
-      <c r="AQ16" s="23">
+      <c r="AQ16" s="22"/>
+      <c r="AR16" s="23"/>
+      <c r="AS16" s="56">
+        <f t="shared" si="2"/>
+        <v>1.0987618476932113</v>
+      </c>
+      <c r="AT16" s="56">
+        <f t="shared" si="3"/>
+        <v>0.82670906200317962</v>
+      </c>
+      <c r="AU16" s="22">
         <v>52</v>
       </c>
-      <c r="AR16" s="23">
+      <c r="AV16" s="22">
         <v>124</v>
       </c>
-      <c r="AS16" s="23">
+      <c r="AW16" s="22">
         <v>1.2</v>
       </c>
-      <c r="AT16" s="24">
+      <c r="AX16" s="23">
         <v>45586</v>
       </c>
-      <c r="AU16" s="23">
+      <c r="AY16" s="22">
         <v>0.97</v>
       </c>
-      <c r="AV16" s="23">
+      <c r="AZ16" s="22">
         <v>142</v>
       </c>
-      <c r="AW16" s="24">
+      <c r="BA16" s="23">
         <v>45586</v>
       </c>
-      <c r="AX16" s="23">
+      <c r="BB16" s="22">
         <v>170</v>
       </c>
-      <c r="AY16" s="24">
+      <c r="BC16" s="23">
         <v>45586</v>
       </c>
-      <c r="AZ16" s="23"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="23">
+      <c r="BD16" s="22"/>
+      <c r="BE16" s="23"/>
+      <c r="BF16" s="56">
+        <f t="shared" si="4"/>
+        <v>0.96058421285614815</v>
+      </c>
+      <c r="BG16" s="56">
+        <f t="shared" si="5"/>
+        <v>0.47694753577106513</v>
+      </c>
+      <c r="BH16" s="22">
         <v>33</v>
       </c>
-      <c r="BC16" s="23">
+      <c r="BI16" s="22">
         <v>54</v>
       </c>
-      <c r="BD16" s="23">
+      <c r="BJ16" s="22">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BE16" s="24">
+      <c r="BK16" s="23">
         <v>45705</v>
       </c>
-      <c r="BF16" s="23">
+      <c r="BL16" s="22">
         <v>1.08</v>
       </c>
-      <c r="BG16" s="23">
+      <c r="BM16" s="22">
         <v>140</v>
       </c>
-      <c r="BH16" s="24">
+      <c r="BN16" s="23">
         <v>45705</v>
       </c>
-      <c r="BI16" s="23">
+      <c r="BO16" s="22">
         <v>187</v>
       </c>
-      <c r="BJ16" s="24">
+      <c r="BP16" s="23">
         <v>45705</v>
       </c>
-      <c r="BK16" s="23"/>
-      <c r="BL16" s="24"/>
-      <c r="BM16" s="23">
+      <c r="BQ16" s="22"/>
+      <c r="BR16" s="23"/>
+      <c r="BS16" s="56">
+        <f t="shared" si="6"/>
+        <v>0.70670069178524109</v>
+      </c>
+      <c r="BT16" s="56">
+        <f t="shared" si="7"/>
+        <v>0.31311799604482532</v>
+      </c>
+      <c r="BU16" s="22">
         <v>19</v>
       </c>
-      <c r="BN16" s="23">
+      <c r="BV16" s="22">
         <v>43</v>
       </c>
-      <c r="BO16" s="23">
+      <c r="BW16" s="22">
         <v>1</v>
       </c>
-      <c r="BP16" s="24">
+      <c r="BX16" s="23">
         <v>45747</v>
       </c>
-      <c r="BQ16" s="23">
+      <c r="BY16" s="22">
         <v>0.99</v>
       </c>
-      <c r="BR16" s="23">
+      <c r="BZ16" s="22">
         <v>139</v>
       </c>
-      <c r="BS16" s="24">
+      <c r="CA16" s="23">
         <v>45747</v>
       </c>
-      <c r="BT16" s="23">
+      <c r="CB16" s="22">
         <v>164</v>
       </c>
-      <c r="BU16" s="24">
+      <c r="CC16" s="23">
         <v>45747</v>
       </c>
-      <c r="BV16" s="23"/>
-      <c r="BW16" s="24"/>
+      <c r="CD16" s="22"/>
+      <c r="CE16" s="23"/>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4421,19 +4893,19 @@
       <c r="F17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G17" s="42">
+      <c r="G17" s="41">
         <v>931.03</v>
       </c>
       <c r="H17" s="3">
         <v>45033</v>
       </c>
-      <c r="I17" s="42">
+      <c r="I17" s="41">
         <v>875.52</v>
       </c>
       <c r="J17" s="3">
         <v>45098</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="41" t="s">
         <v>73</v>
       </c>
       <c r="L17" s="3">
@@ -4457,10 +4929,12 @@
       <c r="R17" s="2">
         <v>1</v>
       </c>
-      <c r="S17" s="2">
+      <c r="S17" s="56">
+        <f>(B17*U17)/(AB17*SQRT(V17))</f>
         <v>1.3281566172707193</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="56">
+        <f>((U17/37)/AB17)*100</f>
         <v>0.16216216216216217</v>
       </c>
       <c r="U17" s="2">
@@ -4491,197 +4965,227 @@
         <v>45034</v>
       </c>
       <c r="AE17" s="3"/>
-      <c r="AF17" s="2">
+      <c r="AF17" s="56">
+        <f t="shared" si="0"/>
+        <v>1.9797582760446371</v>
+      </c>
+      <c r="AG17" s="56">
+        <f t="shared" si="1"/>
+        <v>0.3744708563985672</v>
+      </c>
+      <c r="AH17" s="2">
         <v>23</v>
       </c>
-      <c r="AG17" s="2">
+      <c r="AI17" s="2">
         <v>24</v>
       </c>
-      <c r="AH17" s="2">
+      <c r="AJ17" s="2">
         <v>0.7</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AK17" s="3">
         <v>45098</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AL17" s="2">
         <v>5.7</v>
       </c>
-      <c r="AK17" s="2">
+      <c r="AM17" s="60">
         <v>140</v>
-      </c>
-      <c r="AL17" s="3">
-        <v>45098</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>166</v>
       </c>
       <c r="AN17" s="3">
         <v>45098</v>
       </c>
       <c r="AO17" s="2">
+        <v>166</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>45098</v>
+      </c>
+      <c r="AQ17" s="2">
         <v>1.2</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AR17" s="3">
         <v>45159</v>
       </c>
-      <c r="AQ17" s="2">
+      <c r="AS17" s="56">
+        <f t="shared" si="2"/>
+        <v>1.0933414441871907</v>
+      </c>
+      <c r="AT17" s="56">
+        <f t="shared" si="3"/>
+        <v>0.15795015795015793</v>
+      </c>
+      <c r="AU17" s="2">
         <v>27</v>
       </c>
-      <c r="AR17" s="2">
+      <c r="AV17" s="2">
         <v>14</v>
       </c>
-      <c r="AS17" s="2">
+      <c r="AW17" s="2">
         <v>0.6</v>
       </c>
-      <c r="AT17" s="3">
+      <c r="AX17" s="3">
         <v>45562</v>
       </c>
-      <c r="AU17" s="2">
+      <c r="AY17" s="2">
         <v>8.5</v>
       </c>
-      <c r="AV17" s="2">
+      <c r="AZ17" s="2">
         <v>131</v>
       </c>
-      <c r="AW17" s="3">
+      <c r="BA17" s="3">
         <v>45562</v>
       </c>
-      <c r="AX17" s="2">
+      <c r="BB17" s="2">
         <v>462</v>
       </c>
-      <c r="AY17" s="3">
+      <c r="BC17" s="3">
         <v>45562</v>
       </c>
-      <c r="AZ17" s="2">
+      <c r="BD17" s="2">
         <v>1.4</v>
       </c>
-      <c r="BA17" s="3">
+      <c r="BE17" s="3">
         <v>45558</v>
       </c>
+      <c r="BF17" s="56"/>
+      <c r="BG17" s="56"/>
+      <c r="BS17" s="56"/>
+      <c r="BT17" s="56"/>
     </row>
-    <row r="18" spans="1:75" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:83" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="16">
         <v>39</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>31394</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>45194</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="16">
         <v>1</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="44">
+      <c r="G18" s="43">
         <v>1000</v>
       </c>
-      <c r="H18" s="18">
+      <c r="H18" s="17">
         <v>45190</v>
       </c>
-      <c r="I18" s="53"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17">
-        <v>0</v>
-      </c>
-      <c r="N18" s="17">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0</v>
-      </c>
-      <c r="R18" s="17">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2">
+      <c r="I18" s="52"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16">
+        <v>0</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0</v>
+      </c>
+      <c r="S18" s="56">
+        <f>(B18*U18)/(AB18*SQRT(V18))</f>
         <v>0.7534744389692718</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="56">
+        <f>((U18/37)/AB18)*100</f>
         <v>0.14768867227883622</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="16">
         <v>10</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="16">
         <v>8</v>
       </c>
-      <c r="W18" s="17"/>
-      <c r="X18" s="18">
+      <c r="W18" s="16"/>
+      <c r="X18" s="17">
         <v>45148</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="16">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="18">
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="17">
         <v>45148</v>
       </c>
-      <c r="AB18" s="17">
+      <c r="AB18" s="16">
         <v>183</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="17">
         <v>45148</v>
       </c>
-      <c r="AD18" s="17"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="17"/>
-      <c r="AG18" s="17"/>
-      <c r="AH18" s="17"/>
-      <c r="AI18" s="17"/>
-      <c r="AJ18" s="17"/>
-      <c r="AK18" s="17"/>
-      <c r="AL18" s="17"/>
-      <c r="AM18" s="17"/>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="17"/>
-      <c r="AP18" s="17"/>
-      <c r="AQ18" s="17"/>
-      <c r="AR18" s="17"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="17"/>
-      <c r="BE18" s="17"/>
-      <c r="BF18" s="17"/>
-      <c r="BG18" s="17"/>
-      <c r="BH18" s="17"/>
-      <c r="BI18" s="17"/>
-      <c r="BJ18" s="17"/>
-      <c r="BK18" s="17"/>
-      <c r="BL18" s="17"/>
-      <c r="BM18" s="17"/>
-      <c r="BN18" s="17"/>
-      <c r="BO18" s="17"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="17"/>
-      <c r="BR18" s="17"/>
-      <c r="BS18" s="17"/>
-      <c r="BT18" s="17"/>
-      <c r="BU18" s="17"/>
-      <c r="BV18" s="17"/>
-      <c r="BW18" s="17"/>
+      <c r="AD18" s="16"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="16"/>
+      <c r="AI18" s="16"/>
+      <c r="AJ18" s="16"/>
+      <c r="AK18" s="16"/>
+      <c r="AL18" s="16"/>
+      <c r="AM18" s="65"/>
+      <c r="AN18" s="16"/>
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+      <c r="AW18" s="16"/>
+      <c r="AX18" s="16"/>
+      <c r="AY18" s="16"/>
+      <c r="AZ18" s="16"/>
+      <c r="BA18" s="16"/>
+      <c r="BB18" s="16"/>
+      <c r="BC18" s="16"/>
+      <c r="BD18" s="16"/>
+      <c r="BE18" s="16"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="16"/>
+      <c r="BI18" s="16"/>
+      <c r="BJ18" s="16"/>
+      <c r="BK18" s="16"/>
+      <c r="BL18" s="16"/>
+      <c r="BM18" s="16"/>
+      <c r="BN18" s="16"/>
+      <c r="BO18" s="16"/>
+      <c r="BP18" s="16"/>
+      <c r="BQ18" s="16"/>
+      <c r="BR18" s="16"/>
+      <c r="BS18" s="56"/>
+      <c r="BT18" s="56"/>
+      <c r="BU18" s="16"/>
+      <c r="BV18" s="16"/>
+      <c r="BW18" s="16"/>
+      <c r="BX18" s="16"/>
+      <c r="BY18" s="16"/>
+      <c r="BZ18" s="16"/>
+      <c r="CA18" s="16"/>
+      <c r="CB18" s="16"/>
+      <c r="CC18" s="16"/>
+      <c r="CD18" s="16"/>
+      <c r="CE18" s="16"/>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4700,7 +5204,7 @@
       <c r="F19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="44">
+      <c r="G19" s="43">
         <v>1000</v>
       </c>
       <c r="H19" s="3">
@@ -4724,10 +5228,12 @@
       <c r="R19" s="2">
         <v>0</v>
       </c>
-      <c r="S19" s="2">
+      <c r="S19" s="56">
+        <f>(B19*U19)/(AB19*SQRT(V19))</f>
         <v>2.5608510129534596</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="56">
+        <f>((U19/37)/AB19)*100</f>
         <v>0.40767024007247477</v>
       </c>
       <c r="U19" s="2">
@@ -4763,102 +5269,128 @@
       <c r="AE19" s="3">
         <v>44806</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="56">
+        <f t="shared" si="0"/>
+        <v>1.6356608587077823</v>
+      </c>
+      <c r="AG19" s="56">
+        <f t="shared" si="1"/>
+        <v>0.19970709625882041</v>
+      </c>
+      <c r="AH19" s="2">
         <v>15</v>
       </c>
-      <c r="AG19" s="2">
+      <c r="AI19" s="2">
         <v>10</v>
       </c>
-      <c r="AH19" s="2">
+      <c r="AJ19" s="2">
         <v>0.3</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AK19" s="3">
         <v>44991</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AL19" s="2">
         <v>1.22</v>
       </c>
-      <c r="AK19" s="2">
+      <c r="AM19" s="60">
         <v>141</v>
-      </c>
-      <c r="AL19" s="3">
-        <v>44991</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>203</v>
       </c>
       <c r="AN19" s="3">
         <v>44991</v>
       </c>
-      <c r="AP19" s="3"/>
-      <c r="AQ19" s="2">
+      <c r="AO19" s="2">
+        <v>203</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>44991</v>
+      </c>
+      <c r="AR19" s="3"/>
+      <c r="AS19" s="56">
+        <f t="shared" si="2"/>
+        <v>1.3903785023330992</v>
+      </c>
+      <c r="AT19" s="56">
+        <f t="shared" si="3"/>
+        <v>0.22775584573337385</v>
+      </c>
+      <c r="AU19" s="2">
         <v>30</v>
       </c>
-      <c r="AR19" s="2">
+      <c r="AV19" s="2">
         <v>18</v>
       </c>
-      <c r="AS19" s="2">
+      <c r="AW19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AT19" s="3">
+      <c r="AX19" s="3">
         <v>45031</v>
       </c>
-      <c r="AU19" s="2">
+      <c r="AY19" s="2">
         <v>2.8</v>
       </c>
-      <c r="AV19" s="2">
+      <c r="AZ19" s="2">
         <v>137</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>45031</v>
-      </c>
-      <c r="AX19" s="2">
-        <v>356</v>
-      </c>
-      <c r="AY19" s="3">
-        <v>45031</v>
-      </c>
-      <c r="AZ19" s="2">
-        <v>1.1000000000000001</v>
       </c>
       <c r="BA19" s="3">
         <v>45031</v>
       </c>
       <c r="BB19" s="2">
+        <v>356</v>
+      </c>
+      <c r="BC19" s="3">
+        <v>45031</v>
+      </c>
+      <c r="BD19" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="BE19" s="3">
+        <v>45031</v>
+      </c>
+      <c r="BF19" s="56">
+        <f t="shared" si="4"/>
+        <v>1.3940602015593355</v>
+      </c>
+      <c r="BG19" s="56">
+        <f t="shared" si="5"/>
+        <v>0.36505700012809017</v>
+      </c>
+      <c r="BH19" s="2">
         <v>57</v>
       </c>
-      <c r="BC19" s="2">
+      <c r="BI19" s="2">
         <v>46</v>
       </c>
-      <c r="BD19" s="2">
+      <c r="BJ19" s="2">
         <v>0.8</v>
       </c>
-      <c r="BE19" s="3">
+      <c r="BK19" s="3">
         <v>45053</v>
       </c>
-      <c r="BF19" s="2">
+      <c r="BL19" s="2">
         <v>1.7</v>
       </c>
-      <c r="BG19" s="2">
+      <c r="BM19" s="2">
         <v>132</v>
       </c>
-      <c r="BH19" s="3">
+      <c r="BN19" s="3">
         <v>45053</v>
       </c>
-      <c r="BI19" s="2">
+      <c r="BO19" s="2">
         <v>422</v>
       </c>
-      <c r="BJ19" s="3">
+      <c r="BP19" s="3">
         <v>45053</v>
       </c>
-      <c r="BK19" s="2">
+      <c r="BQ19" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="BL19" s="3">
+      <c r="BR19" s="3">
         <v>45052</v>
       </c>
+      <c r="BS19" s="56"/>
+      <c r="BT19" s="56"/>
     </row>
-    <row r="20" spans="1:75" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:83" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4877,15 +5409,15 @@
       <c r="F20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="44">
+      <c r="G20" s="43">
         <v>1000</v>
       </c>
       <c r="H20" s="3">
         <v>44965</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="41"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2">
         <v>0</v>
@@ -4905,10 +5437,12 @@
       <c r="R20" s="2">
         <v>0</v>
       </c>
-      <c r="S20" s="2">
+      <c r="S20" s="56">
+        <f>(B20*U20)/(AB20*SQRT(V20))</f>
         <v>13.530067155261845</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="56">
+        <f>((U20/37)/AB20)*100</f>
         <v>18.229994700582935</v>
       </c>
       <c r="U20" s="2">
@@ -4944,78 +5478,90 @@
       <c r="AE20" s="3">
         <v>44966</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="56">
+        <f t="shared" si="0"/>
+        <v>9.1368479761767887</v>
+      </c>
+      <c r="AG20" s="56">
+        <f t="shared" si="1"/>
+        <v>8.7129087129087122</v>
+      </c>
+      <c r="AH20" s="2">
         <v>461</v>
       </c>
-      <c r="AG20" s="2">
+      <c r="AI20" s="2">
         <v>275</v>
       </c>
-      <c r="AH20" s="2">
+      <c r="AJ20" s="2">
         <v>2</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AK20" s="3">
         <v>44967</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AL20" s="2">
         <v>5.7</v>
       </c>
-      <c r="AK20" s="2">
+      <c r="AM20" s="60">
         <v>134</v>
-      </c>
-      <c r="AL20" s="3">
-        <v>44967</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>143</v>
       </c>
       <c r="AN20" s="3">
         <v>44967</v>
       </c>
       <c r="AO20" s="2">
-        <v>1.7</v>
+        <v>143</v>
       </c>
       <c r="AP20" s="3">
         <v>44967</v>
       </c>
       <c r="AQ20" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="AR20" s="3">
+        <v>44967</v>
+      </c>
+      <c r="AS20" s="56">
+        <f t="shared" si="2"/>
+        <v>20.673956645649888</v>
+      </c>
+      <c r="AT20" s="56">
+        <f t="shared" si="3"/>
+        <v>17.553036907875615</v>
+      </c>
+      <c r="AU20" s="2">
         <v>604</v>
       </c>
-      <c r="AR20" s="2">
+      <c r="AV20" s="2">
         <v>218</v>
       </c>
-      <c r="AS20" s="2">
+      <c r="AW20" s="2">
         <v>1.3</v>
       </c>
-      <c r="AT20" s="3">
+      <c r="AX20" s="3">
         <v>44968</v>
       </c>
-      <c r="AU20" s="2">
+      <c r="AY20" s="2">
         <v>6.2</v>
       </c>
-      <c r="AV20" s="2">
+      <c r="AZ20" s="2">
         <v>137</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>44968</v>
-      </c>
-      <c r="AX20" s="2">
-        <v>93</v>
-      </c>
-      <c r="AY20" s="3">
-        <v>44968</v>
-      </c>
-      <c r="AZ20" s="2">
-        <v>1.6</v>
       </c>
       <c r="BA20" s="3">
         <v>44968</v>
       </c>
-      <c r="BB20" s="2"/>
-      <c r="BC20" s="2"/>
-      <c r="BD20" s="2"/>
-      <c r="BE20" s="2"/>
-      <c r="BF20" s="2"/>
-      <c r="BG20" s="2"/>
+      <c r="BB20" s="2">
+        <v>93</v>
+      </c>
+      <c r="BC20" s="3">
+        <v>44968</v>
+      </c>
+      <c r="BD20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="BE20" s="3">
+        <v>44968</v>
+      </c>
+      <c r="BF20" s="56"/>
+      <c r="BG20" s="56"/>
       <c r="BH20" s="2"/>
       <c r="BI20" s="2"/>
       <c r="BJ20" s="2"/>
@@ -5027,13 +5573,21 @@
       <c r="BP20" s="2"/>
       <c r="BQ20" s="2"/>
       <c r="BR20" s="2"/>
-      <c r="BS20" s="2"/>
-      <c r="BT20" s="2"/>
+      <c r="BS20" s="56"/>
+      <c r="BT20" s="56"/>
       <c r="BU20" s="2"/>
       <c r="BV20" s="2"/>
       <c r="BW20" s="2"/>
+      <c r="BX20" s="2"/>
+      <c r="BY20" s="2"/>
+      <c r="BZ20" s="2"/>
+      <c r="CA20" s="2"/>
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5052,7 +5606,7 @@
       <c r="F21" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="44">
+      <c r="G21" s="43">
         <v>1000</v>
       </c>
       <c r="H21" s="3">
@@ -5076,10 +5630,12 @@
       <c r="R21" s="2">
         <v>0</v>
       </c>
-      <c r="S21" s="2">
+      <c r="S21" s="56">
+        <f>(B21*U21)/(AB21*SQRT(V21))</f>
         <v>0.55321736165246704</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="56">
+        <f>((U21/37)/AB21)*100</f>
         <v>0.18299549549549551</v>
       </c>
       <c r="U21" s="2">
@@ -5115,74 +5671,94 @@
       <c r="AE21" s="3">
         <v>45457</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="56">
+        <f t="shared" si="0"/>
+        <v>0.68976897689768979</v>
+      </c>
+      <c r="AG21" s="56">
+        <f t="shared" si="1"/>
+        <v>0.16947640710016945</v>
+      </c>
+      <c r="AH21" s="2">
         <v>19</v>
       </c>
-      <c r="AG21" s="2">
+      <c r="AI21" s="2">
         <v>16</v>
       </c>
-      <c r="AH21" s="2">
+      <c r="AJ21" s="2">
         <v>0.3</v>
       </c>
-      <c r="AI21" s="3">
+      <c r="AK21" s="3">
         <v>45469</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AL21" s="2">
         <v>0.63</v>
       </c>
-      <c r="AK21" s="2">
+      <c r="AM21" s="60">
         <v>138</v>
-      </c>
-      <c r="AL21" s="3">
-        <v>45469</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>303</v>
       </c>
       <c r="AN21" s="3">
         <v>45469</v>
       </c>
       <c r="AO21" s="2">
-        <v>1.2</v>
+        <v>303</v>
       </c>
       <c r="AP21" s="3">
         <v>45469</v>
       </c>
       <c r="AQ21" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="AR21" s="3">
+        <v>45469</v>
+      </c>
+      <c r="AS21" s="56">
+        <f t="shared" si="2"/>
+        <v>0.5778048399782485</v>
+      </c>
+      <c r="AT21" s="56">
+        <f t="shared" si="3"/>
+        <v>0.16647081864473171</v>
+      </c>
+      <c r="AU21" s="2">
         <v>17</v>
       </c>
-      <c r="AR21" s="2">
+      <c r="AV21" s="2">
         <v>22</v>
       </c>
-      <c r="AS21" s="2">
+      <c r="AW21" s="2">
         <v>0.3</v>
       </c>
-      <c r="AT21" s="3">
+      <c r="AX21" s="3">
         <v>45480</v>
       </c>
-      <c r="AU21" s="2">
+      <c r="AY21" s="2">
         <v>0.7</v>
       </c>
-      <c r="AV21" s="2">
+      <c r="AZ21" s="2">
         <v>137</v>
-      </c>
-      <c r="AW21" s="3">
-        <v>45480</v>
-      </c>
-      <c r="AX21" s="2">
-        <v>276</v>
-      </c>
-      <c r="AY21" s="3">
-        <v>45480</v>
-      </c>
-      <c r="AZ21" s="2">
-        <v>1</v>
       </c>
       <c r="BA21" s="3">
         <v>45480</v>
       </c>
+      <c r="BB21" s="2">
+        <v>276</v>
+      </c>
+      <c r="BC21" s="3">
+        <v>45480</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="3">
+        <v>45480</v>
+      </c>
+      <c r="BF21" s="56"/>
+      <c r="BG21" s="56"/>
+      <c r="BS21" s="56"/>
+      <c r="BT21" s="56"/>
     </row>
-    <row r="22" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5201,19 +5777,19 @@
       <c r="F22" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G22" s="44">
+      <c r="G22" s="43">
         <v>1000</v>
       </c>
       <c r="H22" s="3">
         <v>45329</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="41" t="s">
         <v>97</v>
       </c>
       <c r="J22" s="3">
         <v>45354</v>
       </c>
-      <c r="K22" s="42"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2">
         <v>0</v>
@@ -5233,10 +5809,12 @@
       <c r="R22" s="2">
         <v>0</v>
       </c>
-      <c r="S22" s="2">
+      <c r="S22" s="56">
+        <f>(B22*U22)/(AB22*SQRT(V22))</f>
         <v>6.5639220369959794</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="56">
+        <f>((U22/37)/AB22)*100</f>
         <v>5.086452912539869</v>
       </c>
       <c r="U22" s="2">
@@ -5272,132 +5850,164 @@
       <c r="AE22" s="3">
         <v>45328</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="56">
+        <f t="shared" si="0"/>
+        <v>7.2148283852117299</v>
+      </c>
+      <c r="AG22" s="56">
+        <f t="shared" si="1"/>
+        <v>5.0700335371868217</v>
+      </c>
+      <c r="AH22" s="2">
         <v>257</v>
       </c>
-      <c r="AG22" s="2">
+      <c r="AI22" s="2">
         <v>125</v>
       </c>
-      <c r="AH22" s="2">
+      <c r="AJ22" s="2">
         <v>2.5</v>
       </c>
-      <c r="AI22" s="3">
+      <c r="AK22" s="3">
         <v>45330</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AL22" s="2">
         <v>0.7</v>
       </c>
-      <c r="AK22" s="2">
+      <c r="AM22" s="60">
         <v>138</v>
-      </c>
-      <c r="AL22" s="3">
-        <v>45330</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>137</v>
       </c>
       <c r="AN22" s="3">
         <v>45330</v>
       </c>
-      <c r="AO22" s="2"/>
-      <c r="AP22" s="3"/>
-      <c r="AQ22" s="2">
+      <c r="AO22" s="2">
+        <v>137</v>
+      </c>
+      <c r="AP22" s="3">
+        <v>45330</v>
+      </c>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="3"/>
+      <c r="AS22" s="56">
+        <f t="shared" si="2"/>
+        <v>8.0469572406800651</v>
+      </c>
+      <c r="AT22" s="56">
+        <f t="shared" si="3"/>
+        <v>5.5405405405405412</v>
+      </c>
+      <c r="AU22" s="2">
         <v>287</v>
       </c>
-      <c r="AR22" s="2">
+      <c r="AV22" s="2">
         <v>120</v>
       </c>
-      <c r="AS22" s="2">
+      <c r="AW22" s="2">
         <v>2.4</v>
       </c>
-      <c r="AT22" s="3">
+      <c r="AX22" s="3">
         <v>45334</v>
       </c>
-      <c r="AU22" s="2">
+      <c r="AY22" s="2">
         <v>0.6</v>
       </c>
-      <c r="AV22" s="2">
+      <c r="AZ22" s="2">
         <v>131</v>
       </c>
-      <c r="AW22" s="3">
+      <c r="BA22" s="3">
         <v>45334</v>
       </c>
-      <c r="AX22" s="2">
+      <c r="BB22" s="2">
         <v>140</v>
       </c>
-      <c r="AY22" s="3">
+      <c r="BC22" s="3">
         <v>45332</v>
       </c>
-      <c r="AZ22" s="2"/>
-      <c r="BA22" s="3"/>
-      <c r="BB22" s="2">
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="3"/>
+      <c r="BF22" s="56">
+        <f t="shared" si="4"/>
+        <v>6.5549442457152054</v>
+      </c>
+      <c r="BG22" s="56">
+        <f t="shared" si="5"/>
+        <v>3.9945029775538252</v>
+      </c>
+      <c r="BH22" s="2">
         <v>436</v>
       </c>
-      <c r="BC22" s="2">
+      <c r="BI22" s="2">
         <v>94</v>
       </c>
-      <c r="BD22" s="2">
+      <c r="BJ22" s="2">
         <v>7.5</v>
       </c>
-      <c r="BE22" s="3">
+      <c r="BK22" s="3">
         <v>45353</v>
       </c>
-      <c r="BF22" s="2">
+      <c r="BL22" s="2">
         <v>1.4</v>
       </c>
-      <c r="BG22" s="2">
+      <c r="BM22" s="2">
         <v>135</v>
       </c>
-      <c r="BH22" s="3">
+      <c r="BN22" s="3">
         <v>45353</v>
       </c>
-      <c r="BI22" s="2">
+      <c r="BO22" s="2">
         <v>295</v>
       </c>
-      <c r="BJ22" s="3">
+      <c r="BP22" s="3">
         <v>45353</v>
       </c>
-      <c r="BK22" s="2">
+      <c r="BQ22" s="2">
         <v>2.6</v>
       </c>
-      <c r="BL22" s="3">
+      <c r="BR22" s="3">
         <v>45353</v>
       </c>
-      <c r="BM22" s="2">
+      <c r="BS22" s="56">
+        <f>(B22*BU22)/(CB22*SQRT(BV22))</f>
+        <v>164.22013789104821</v>
+      </c>
+      <c r="BT22" s="56">
+        <f t="shared" si="7"/>
+        <v>385.9311366160681</v>
+      </c>
+      <c r="BU22" s="2">
         <v>10424</v>
       </c>
-      <c r="BN22" s="2">
+      <c r="BV22" s="2">
         <v>1398</v>
       </c>
-      <c r="BO22" s="2">
+      <c r="BW22" s="2">
         <v>11.9</v>
       </c>
-      <c r="BP22" s="3">
+      <c r="BX22" s="3">
         <v>45356</v>
       </c>
-      <c r="BQ22" s="2">
+      <c r="BY22" s="2">
         <v>1.5</v>
       </c>
-      <c r="BR22" s="2">
+      <c r="BZ22" s="2">
         <v>137</v>
       </c>
-      <c r="BS22" s="3">
+      <c r="CA22" s="3">
         <v>45356</v>
       </c>
-      <c r="BT22" s="2">
+      <c r="CB22" s="2">
         <v>73</v>
       </c>
-      <c r="BU22" s="3">
+      <c r="CC22" s="3">
         <v>45356</v>
       </c>
-      <c r="BV22" s="2">
+      <c r="CD22" s="2">
         <v>4.2</v>
       </c>
-      <c r="BW22" s="3">
+      <c r="CE22" s="3">
         <v>45356</v>
       </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5416,7 +6026,7 @@
       <c r="F23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="44">
+      <c r="G23" s="43">
         <v>1000</v>
       </c>
       <c r="H23" s="3">
@@ -5440,10 +6050,12 @@
       <c r="R23" s="2">
         <v>0</v>
       </c>
-      <c r="S23" s="2">
+      <c r="S23" s="56">
+        <f>(B23*U23)/(AB23*SQRT(V23))</f>
         <v>2.0560260571953282</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="56">
+        <f>((U23/37)/AB23)*100</f>
         <v>0.70442783208740656</v>
       </c>
       <c r="U23" s="2">
@@ -5473,205 +6085,241 @@
       <c r="AC23" s="3">
         <v>44958</v>
       </c>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="BF23" s="56"/>
+      <c r="BG23" s="56"/>
+      <c r="BS23" s="56"/>
+      <c r="BT23" s="56"/>
     </row>
-    <row r="24" spans="1:75" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:83" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
+      <c r="B24" s="19">
         <v>74</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>18394</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>44838</v>
       </c>
-      <c r="E24" s="20">
-        <v>0</v>
-      </c>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="19">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="G24" s="44">
+      <c r="G24" s="43">
         <v>1000</v>
       </c>
-      <c r="H24" s="21">
+      <c r="H24" s="20">
         <v>44749</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20">
-        <v>0</v>
-      </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>0</v>
-      </c>
-      <c r="P24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>0</v>
-      </c>
-      <c r="R24" s="20">
-        <v>0</v>
-      </c>
-      <c r="S24" s="2">
+      <c r="I24" s="54"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19">
+        <v>0</v>
+      </c>
+      <c r="N24" s="19">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <v>0</v>
+      </c>
+      <c r="P24" s="19">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="19">
+        <v>0</v>
+      </c>
+      <c r="R24" s="19">
+        <v>0</v>
+      </c>
+      <c r="S24" s="56">
+        <f>(B24*U24)/(AB24*SQRT(V24))</f>
         <v>6.6315454011934829</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="56">
+        <f>((U24/37)/AB24)*100</f>
         <v>1.1865524060646013</v>
       </c>
-      <c r="U24" s="20">
+      <c r="U24" s="19">
         <v>18</v>
       </c>
-      <c r="V24" s="20">
+      <c r="V24" s="19">
         <v>24</v>
       </c>
-      <c r="W24" s="20">
+      <c r="W24" s="19">
         <v>0.8</v>
       </c>
-      <c r="X24" s="21">
+      <c r="X24" s="20">
         <v>44750</v>
       </c>
-      <c r="Y24" s="20">
+      <c r="Y24" s="19">
         <v>0.8</v>
       </c>
-      <c r="Z24" s="20">
+      <c r="Z24" s="19">
         <v>127</v>
       </c>
-      <c r="AA24" s="21">
+      <c r="AA24" s="20">
         <v>44750</v>
       </c>
-      <c r="AB24" s="20">
+      <c r="AB24" s="19">
         <v>41</v>
       </c>
-      <c r="AC24" s="21">
+      <c r="AC24" s="20">
         <v>44750</v>
       </c>
-      <c r="AD24" s="20">
+      <c r="AD24" s="19">
         <v>1.3</v>
       </c>
-      <c r="AE24" s="21">
+      <c r="AE24" s="20">
         <v>44755</v>
       </c>
-      <c r="AF24" s="20">
+      <c r="AF24" s="56">
+        <f t="shared" si="0"/>
+        <v>3.8459220541475658</v>
+      </c>
+      <c r="AG24" s="56">
+        <f t="shared" si="1"/>
+        <v>0.57915057915057921</v>
+      </c>
+      <c r="AH24" s="19">
         <v>18</v>
       </c>
-      <c r="AG24" s="20">
+      <c r="AI24" s="19">
         <v>17</v>
       </c>
-      <c r="AH24" s="20">
+      <c r="AJ24" s="19">
         <v>0.5</v>
       </c>
-      <c r="AI24" s="21">
+      <c r="AK24" s="20">
         <v>44782</v>
       </c>
-      <c r="AJ24" s="20">
+      <c r="AL24" s="19">
         <v>0.7</v>
       </c>
-      <c r="AK24" s="20">
+      <c r="AM24" s="61">
         <v>133</v>
       </c>
-      <c r="AL24" s="21">
+      <c r="AN24" s="20">
         <v>44782</v>
       </c>
-      <c r="AM24" s="20">
+      <c r="AO24" s="19">
         <v>84</v>
       </c>
-      <c r="AN24" s="21">
+      <c r="AP24" s="20">
         <v>44782</v>
       </c>
-      <c r="AO24" s="20">
+      <c r="AQ24" s="19">
         <v>1.2</v>
       </c>
-      <c r="AP24" s="21">
+      <c r="AR24" s="20">
         <v>44776</v>
       </c>
-      <c r="AQ24" s="20">
+      <c r="AS24" s="56">
+        <f t="shared" si="2"/>
+        <v>11.613176398798533</v>
+      </c>
+      <c r="AT24" s="56">
+        <f t="shared" si="3"/>
+        <v>1.7488076311605725</v>
+      </c>
+      <c r="AU24" s="19">
         <v>22</v>
       </c>
-      <c r="AR24" s="20">
+      <c r="AV24" s="19">
         <v>17</v>
       </c>
-      <c r="AS24" s="20">
+      <c r="AW24" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="AT24" s="21">
+      <c r="AX24" s="20">
         <v>44811</v>
       </c>
-      <c r="AU24" s="20">
+      <c r="AY24" s="19">
         <v>0.4</v>
       </c>
-      <c r="AV24" s="20">
+      <c r="AZ24" s="19">
         <v>144</v>
       </c>
-      <c r="AW24" s="21">
+      <c r="BA24" s="20">
         <v>44811</v>
       </c>
-      <c r="AX24" s="20">
+      <c r="BB24" s="19">
         <v>34</v>
       </c>
-      <c r="AY24" s="21">
+      <c r="BC24" s="20">
         <v>44811</v>
       </c>
-      <c r="AZ24" s="20">
+      <c r="BD24" s="19">
         <v>1.2</v>
       </c>
-      <c r="BA24" s="21">
+      <c r="BE24" s="20">
         <v>44807</v>
       </c>
-      <c r="BB24" s="20">
+      <c r="BF24" s="56">
+        <f t="shared" si="4"/>
+        <v>3.3147868903473343</v>
+      </c>
+      <c r="BG24" s="56">
+        <f t="shared" si="5"/>
+        <v>0.41938490214352292</v>
+      </c>
+      <c r="BH24" s="19">
         <v>18</v>
       </c>
-      <c r="BC24" s="20">
+      <c r="BI24" s="19">
         <v>12</v>
       </c>
-      <c r="BD24" s="20">
+      <c r="BJ24" s="19">
         <v>1</v>
       </c>
-      <c r="BE24" s="21">
+      <c r="BK24" s="20">
         <v>44838</v>
       </c>
-      <c r="BF24" s="20">
+      <c r="BL24" s="19">
         <v>0.7</v>
       </c>
-      <c r="BG24" s="20">
+      <c r="BM24" s="19">
         <v>140</v>
       </c>
-      <c r="BH24" s="21">
+      <c r="BN24" s="20">
         <v>44838</v>
       </c>
-      <c r="BI24" s="20">
+      <c r="BO24" s="19">
         <v>116</v>
       </c>
-      <c r="BJ24" s="21">
+      <c r="BP24" s="20">
         <v>44838</v>
       </c>
-      <c r="BK24" s="20">
+      <c r="BQ24" s="19">
         <v>1.3</v>
       </c>
-      <c r="BL24" s="21">
+      <c r="BR24" s="20">
         <v>44838</v>
       </c>
-      <c r="BM24" s="20"/>
-      <c r="BN24" s="20"/>
-      <c r="BO24" s="20"/>
-      <c r="BP24" s="20"/>
-      <c r="BQ24" s="20"/>
-      <c r="BR24" s="20"/>
-      <c r="BS24" s="20"/>
-      <c r="BT24" s="20"/>
-      <c r="BU24" s="20"/>
-      <c r="BV24" s="20"/>
-      <c r="BW24" s="20"/>
+      <c r="BS24" s="56"/>
+      <c r="BT24" s="56"/>
+      <c r="BU24" s="19"/>
+      <c r="BV24" s="19"/>
+      <c r="BW24" s="19"/>
+      <c r="BX24" s="19"/>
+      <c r="BY24" s="19"/>
+      <c r="BZ24" s="19"/>
+      <c r="CA24" s="19"/>
+      <c r="CB24" s="19"/>
+      <c r="CC24" s="19"/>
+      <c r="CD24" s="19"/>
+      <c r="CE24" s="19"/>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5690,15 +6338,15 @@
       <c r="F25" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G25" s="44">
+      <c r="G25" s="43">
         <v>1000</v>
       </c>
       <c r="H25" s="5">
         <v>44978</v>
       </c>
-      <c r="I25" s="56"/>
+      <c r="I25" s="55"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="56"/>
+      <c r="K25" s="55"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4">
         <v>0</v>
@@ -5718,10 +6366,12 @@
       <c r="R25" s="4">
         <v>0</v>
       </c>
-      <c r="S25" s="2">
+      <c r="S25" s="56">
+        <f>(B25*U25)/(AB25*SQRT(V25))</f>
         <v>0.69997936497988533</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="56">
+        <f>((U25/37)/AB25)*100</f>
         <v>0.197192901055562</v>
       </c>
       <c r="U25" s="4">
@@ -5757,21 +6407,21 @@
       <c r="AE25" s="5">
         <v>44977</v>
       </c>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
+      <c r="AF25" s="56"/>
+      <c r="AG25" s="56"/>
       <c r="AH25" s="4"/>
       <c r="AI25" s="4"/>
       <c r="AJ25" s="4"/>
       <c r="AK25" s="4"/>
       <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
+      <c r="AM25" s="62"/>
       <c r="AN25" s="4"/>
       <c r="AO25" s="4"/>
       <c r="AP25" s="4"/>
       <c r="AQ25" s="4"/>
       <c r="AR25" s="4"/>
-      <c r="AS25" s="4"/>
-      <c r="AT25" s="4"/>
+      <c r="AS25" s="56"/>
+      <c r="AT25" s="56"/>
       <c r="AU25" s="4"/>
       <c r="AV25" s="4"/>
       <c r="AW25" s="4"/>
@@ -5783,8 +6433,8 @@
       <c r="BC25" s="4"/>
       <c r="BD25" s="4"/>
       <c r="BE25" s="4"/>
-      <c r="BF25" s="4"/>
-      <c r="BG25" s="4"/>
+      <c r="BF25" s="56"/>
+      <c r="BG25" s="56"/>
       <c r="BH25" s="4"/>
       <c r="BI25" s="4"/>
       <c r="BJ25" s="4"/>
@@ -5796,13 +6446,21 @@
       <c r="BP25" s="4"/>
       <c r="BQ25" s="4"/>
       <c r="BR25" s="4"/>
-      <c r="BS25" s="4"/>
-      <c r="BT25" s="4"/>
+      <c r="BS25" s="56"/>
+      <c r="BT25" s="56"/>
       <c r="BU25" s="4"/>
       <c r="BV25" s="4"/>
       <c r="BW25" s="4"/>
+      <c r="BX25" s="4"/>
+      <c r="BY25" s="4"/>
+      <c r="BZ25" s="4"/>
+      <c r="CA25" s="4"/>
+      <c r="CB25" s="4"/>
+      <c r="CC25" s="4"/>
+      <c r="CD25" s="4"/>
+      <c r="CE25" s="4"/>
     </row>
-    <row r="26" spans="1:75" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5821,15 +6479,15 @@
       <c r="F26" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="44">
+      <c r="G26" s="43">
         <v>1000</v>
       </c>
       <c r="H26" s="5">
         <v>45314</v>
       </c>
-      <c r="I26" s="56"/>
+      <c r="I26" s="55"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="56"/>
+      <c r="K26" s="55"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4">
         <v>0</v>
@@ -5849,10 +6507,12 @@
       <c r="R26" s="4">
         <v>0</v>
       </c>
-      <c r="S26" s="2">
+      <c r="S26" s="56">
+        <f>(B26*U26)/(AB26*SQRT(V26))</f>
         <v>0.50861809428609883</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="56">
+        <f>((U26/37)/AB26)*100</f>
         <v>0.19305019305019305</v>
       </c>
       <c r="U26" s="4">
@@ -5884,39 +6544,45 @@
       </c>
       <c r="AD26" s="4"/>
       <c r="AE26" s="5"/>
-      <c r="AF26" s="4">
+      <c r="AF26" s="56">
+        <f t="shared" si="0"/>
+        <v>0.60545454545454547</v>
+      </c>
+      <c r="AG26" s="56">
+        <f t="shared" si="1"/>
+        <v>0.22113022113022116</v>
+      </c>
+      <c r="AH26" s="4">
         <v>18</v>
       </c>
-      <c r="AG26" s="4">
+      <c r="AI26" s="4">
         <v>25</v>
       </c>
-      <c r="AH26" s="4">
+      <c r="AJ26" s="4">
         <v>0.4</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AK26" s="5">
         <v>45314</v>
       </c>
-      <c r="AJ26" s="4">
+      <c r="AL26" s="4">
         <v>0.6</v>
       </c>
-      <c r="AK26" s="4">
+      <c r="AM26" s="62">
         <v>136</v>
-      </c>
-      <c r="AL26" s="5">
-        <v>45314</v>
-      </c>
-      <c r="AM26" s="4">
-        <v>220</v>
       </c>
       <c r="AN26" s="5">
         <v>45314</v>
       </c>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="5"/>
+      <c r="AO26" s="4">
+        <v>220</v>
+      </c>
+      <c r="AP26" s="5">
+        <v>45314</v>
+      </c>
       <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
-      <c r="AT26" s="4"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="56"/>
+      <c r="AT26" s="56"/>
       <c r="AU26" s="4"/>
       <c r="AV26" s="4"/>
       <c r="AW26" s="4"/>
@@ -5928,8 +6594,8 @@
       <c r="BC26" s="4"/>
       <c r="BD26" s="4"/>
       <c r="BE26" s="4"/>
-      <c r="BF26" s="4"/>
-      <c r="BG26" s="4"/>
+      <c r="BF26" s="56"/>
+      <c r="BG26" s="56"/>
       <c r="BH26" s="4"/>
       <c r="BI26" s="4"/>
       <c r="BJ26" s="4"/>
@@ -5941,15 +6607,27 @@
       <c r="BP26" s="4"/>
       <c r="BQ26" s="4"/>
       <c r="BR26" s="4"/>
-      <c r="BS26" s="4"/>
-      <c r="BT26" s="4"/>
+      <c r="BS26" s="56"/>
+      <c r="BT26" s="56"/>
       <c r="BU26" s="4"/>
       <c r="BV26" s="4"/>
       <c r="BW26" s="4"/>
+      <c r="BX26" s="4"/>
+      <c r="BY26" s="4"/>
+      <c r="BZ26" s="4"/>
+      <c r="CA26" s="4"/>
+      <c r="CB26" s="4"/>
+      <c r="CC26" s="4"/>
+      <c r="CD26" s="4"/>
+      <c r="CE26" s="4"/>
+    </row>
+    <row r="27" spans="1:83" x14ac:dyDescent="0.25">
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:BW26">
-    <sortCondition ref="G2:G26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CE26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5960,584 +6638,584 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5425E-274C-4C63-99D0-8378A0ACB863}">
   <dimension ref="B1:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
     <col min="8" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="G1" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="34">
         <v>14</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>11</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="G3" s="34" t="s">
+      <c r="E3" s="37"/>
+      <c r="G3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <v>14</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="34">
         <v>11</v>
       </c>
-      <c r="J3" s="38"/>
+      <c r="J3" s="37"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="35"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="36" t="s">
-        <v>148</v>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="G5" t="s">
         <v>89</v>
       </c>
-      <c r="H5" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I5" s="37" t="s">
+      <c r="H5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>150</v>
+      <c r="J5" s="35" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="35"/>
       <c r="G6" t="s">
         <v>91</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>151</v>
+      <c r="J6" s="35" t="s">
+        <v>147</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="35"/>
       <c r="G7" t="s">
         <v>113</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36" t="s">
-        <v>149</v>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G8" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="37" t="s">
+      <c r="H8" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="36" t="s">
-        <v>152</v>
+      <c r="J8" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="G9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="I9" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="36" t="s">
-        <v>152</v>
+      <c r="J9" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="35"/>
       <c r="G10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="37" t="s">
+      <c r="H10" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="37" t="s">
+      <c r="I10" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>152</v>
+      <c r="J10" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="36"/>
+      <c r="E11" s="35"/>
       <c r="G11" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="37" t="s">
+      <c r="I11" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="J11" s="36" t="s">
-        <v>152</v>
+      <c r="J11" s="35" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="36"/>
+      <c r="E12" s="35"/>
       <c r="G12" t="s">
-        <v>118</v>
-      </c>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="36"/>
+        <v>117</v>
+      </c>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="36"/>
-      <c r="G13" s="50" t="s">
+      <c r="E13" s="35"/>
+      <c r="G13" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="G14" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H14" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35"/>
+      <c r="G15" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I15" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J15" s="35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="G18" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="J18" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="39"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="36"/>
-      <c r="G14" s="50" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="G19" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="G20" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" s="36" t="s">
-        <v>141</v>
+      <c r="H20" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="35" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="36"/>
-      <c r="G15" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>87</v>
-      </c>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="35"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="36"/>
-      <c r="G16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J16" s="38" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="G22" t="s">
+        <v>127</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="36"/>
-      <c r="G17" t="s">
-        <v>119</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="J17" s="36" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35"/>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="J23" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="36"/>
-      <c r="G18" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="J18" s="36" t="s">
-        <v>144</v>
-      </c>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="36"/>
-      <c r="G19" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="H19" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="J19" s="36" t="s">
-        <v>145</v>
-      </c>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="35"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="36"/>
-      <c r="G20" t="s">
-        <v>126</v>
-      </c>
-      <c r="H20" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="J20" s="36" t="s">
-        <v>139</v>
-      </c>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="36"/>
-      <c r="G21" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="36"/>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="35"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="36"/>
-      <c r="G22" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="J22" s="36" t="s">
-        <v>146</v>
-      </c>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="50"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="36"/>
-      <c r="G23" t="s">
-        <v>132</v>
-      </c>
-      <c r="H23" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="J23" s="36" t="s">
-        <v>147</v>
-      </c>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="49"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="35"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="50"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="36"/>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B25" s="50"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="36"/>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="35"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="36"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="35"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="50"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="36"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="36"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="35"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B29" s="50"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="36"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="35"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="36"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="35"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="36"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="35"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36"/>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="35"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="36"/>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="35"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="36"/>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="37"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="36"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C41" s="36"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="35"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="36"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C42" s="36"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="36"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="36"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="35"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="36"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="34"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="38"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="36"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="38"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="38"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="36"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="36"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="35"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="2">
